--- a/data/134/DEUSTATIS/old/National accounts - Productivity.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - Productivity.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="82">
   <si>
     <t>National accounts - Productivity, compensation of employees,
 gross wages a.salaries,unit labour costs: Germany, quarters,
@@ -259,7 +259,7 @@
     <t>Agency, Nürnberg.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:49:39</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:52:57</t>
   </si>
 </sst>
 </file>
@@ -3865,37 +3865,37 @@
         <v>21648.0</v>
       </c>
       <c r="DK8" t="n" s="11">
-        <v>21640.0</v>
+        <v>21687.0</v>
       </c>
       <c r="DL8" t="n" s="11">
-        <v>21748.0</v>
+        <v>21796.0</v>
       </c>
       <c r="DM8" t="n" s="11">
-        <v>21745.0</v>
+        <v>21793.0</v>
       </c>
       <c r="DN8" t="n" s="11">
-        <v>21643.0</v>
+        <v>21691.0</v>
       </c>
       <c r="DO8" t="n" s="11">
-        <v>21227.0</v>
+        <v>21276.0</v>
       </c>
       <c r="DP8" t="n" s="11">
-        <v>17364.0</v>
+        <v>17405.0</v>
       </c>
       <c r="DQ8" t="n" s="11">
-        <v>20214.0</v>
+        <v>20262.0</v>
       </c>
       <c r="DR8" t="n" s="11">
-        <v>21799.0</v>
+        <v>21848.0</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>21645.0</v>
+        <v>21665.0</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>21843.0</v>
-      </c>
-      <c r="DU8" t="s" s="11">
-        <v>44</v>
+        <v>21841.0</v>
+      </c>
+      <c r="DU8" t="n" s="11">
+        <v>21544.0</v>
       </c>
       <c r="DV8" t="s" s="11">
         <v>44</v>
@@ -4245,37 +4245,37 @@
         <v>58.88</v>
       </c>
       <c r="DK9" t="n" s="11">
-        <v>57.7</v>
+        <v>57.83</v>
       </c>
       <c r="DL9" t="n" s="11">
-        <v>64.06</v>
+        <v>64.2</v>
       </c>
       <c r="DM9" t="n" s="11">
-        <v>58.69</v>
+        <v>58.82</v>
       </c>
       <c r="DN9" t="n" s="11">
-        <v>59.68</v>
+        <v>59.81</v>
       </c>
       <c r="DO9" t="n" s="11">
-        <v>57.17</v>
+        <v>57.3</v>
       </c>
       <c r="DP9" t="n" s="11">
-        <v>57.04</v>
+        <v>57.18</v>
       </c>
       <c r="DQ9" t="n" s="11">
-        <v>57.06</v>
+        <v>57.19</v>
       </c>
       <c r="DR9" t="n" s="11">
-        <v>60.31</v>
+        <v>60.45</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>59.73</v>
+        <v>59.84</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>65.0</v>
-      </c>
-      <c r="DU9" t="s" s="11">
-        <v>44</v>
+        <v>65.25</v>
+      </c>
+      <c r="DU9" t="n" s="11">
+        <v>58.87</v>
       </c>
       <c r="DV9" t="s" s="11">
         <v>44</v>
@@ -4625,37 +4625,37 @@
         <v>104.68</v>
       </c>
       <c r="DK10" t="n" s="11">
-        <v>105.37</v>
+        <v>104.34</v>
       </c>
       <c r="DL10" t="n" s="11">
-        <v>105.31</v>
+        <v>104.29</v>
       </c>
       <c r="DM10" t="n" s="11">
-        <v>104.29</v>
+        <v>103.27</v>
       </c>
       <c r="DN10" t="n" s="11">
-        <v>103.18</v>
+        <v>102.18</v>
       </c>
       <c r="DO10" t="n" s="11">
-        <v>101.13</v>
+        <v>100.15</v>
       </c>
       <c r="DP10" t="n" s="11">
-        <v>83.11</v>
+        <v>82.31</v>
       </c>
       <c r="DQ10" t="n" s="11">
-        <v>96.39</v>
+        <v>95.47</v>
       </c>
       <c r="DR10" t="n" s="11">
-        <v>105.03</v>
+        <v>104.01</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>102.02</v>
+        <v>100.84</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>103.02</v>
-      </c>
-      <c r="DU10" t="s" s="11">
-        <v>44</v>
+        <v>102.12</v>
+      </c>
+      <c r="DU10" t="n" s="11">
+        <v>98.61</v>
       </c>
       <c r="DV10" t="s" s="11">
         <v>44</v>
@@ -5005,37 +5005,37 @@
         <v>105.05</v>
       </c>
       <c r="DK11" t="n" s="11">
-        <v>103.67</v>
+        <v>102.65</v>
       </c>
       <c r="DL11" t="n" s="11">
-        <v>114.46</v>
+        <v>113.34</v>
       </c>
       <c r="DM11" t="n" s="11">
-        <v>103.87</v>
+        <v>102.85</v>
       </c>
       <c r="DN11" t="n" s="11">
-        <v>104.98</v>
+        <v>103.96</v>
       </c>
       <c r="DO11" t="n" s="11">
-        <v>100.49</v>
+        <v>99.51</v>
       </c>
       <c r="DP11" t="n" s="11">
-        <v>100.74</v>
+        <v>99.77</v>
       </c>
       <c r="DQ11" t="n" s="11">
-        <v>100.39</v>
+        <v>99.43</v>
       </c>
       <c r="DR11" t="n" s="11">
-        <v>107.21</v>
+        <v>106.18</v>
       </c>
       <c r="DS11" t="n" s="11">
-        <v>103.88</v>
+        <v>102.76</v>
       </c>
       <c r="DT11" t="n" s="11">
-        <v>113.12</v>
-      </c>
-      <c r="DU11" t="s" s="11">
-        <v>44</v>
+        <v>112.57</v>
+      </c>
+      <c r="DU11" t="n" s="11">
+        <v>99.42</v>
       </c>
       <c r="DV11" t="s" s="11">
         <v>44</v>
@@ -5409,13 +5409,13 @@
         <v>15054.0</v>
       </c>
       <c r="DS12" t="n" s="11">
-        <v>13888.0</v>
+        <v>13890.0</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>15116.0</v>
-      </c>
-      <c r="DU12" t="s" s="11">
-        <v>44</v>
+        <v>15209.0</v>
+      </c>
+      <c r="DU12" t="n" s="11">
+        <v>14137.0</v>
       </c>
       <c r="DV12" t="s" s="11">
         <v>44</v>
@@ -5789,13 +5789,13 @@
         <v>42.11</v>
       </c>
       <c r="DS13" t="n" s="11">
-        <v>38.77</v>
+        <v>38.82</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>45.53</v>
-      </c>
-      <c r="DU13" t="s" s="11">
-        <v>44</v>
+        <v>45.99</v>
+      </c>
+      <c r="DU13" t="n" s="11">
+        <v>39.1</v>
       </c>
       <c r="DV13" t="s" s="11">
         <v>44</v>
@@ -6169,13 +6169,13 @@
         <v>12406.0</v>
       </c>
       <c r="DS14" t="n" s="11">
-        <v>11369.0</v>
+        <v>11368.0</v>
       </c>
       <c r="DT14" t="n" s="11">
-        <v>12391.0</v>
-      </c>
-      <c r="DU14" t="s" s="11">
-        <v>44</v>
+        <v>12467.0</v>
+      </c>
+      <c r="DU14" t="n" s="11">
+        <v>11624.0</v>
       </c>
       <c r="DV14" t="s" s="11">
         <v>44</v>
@@ -6549,13 +6549,13 @@
         <v>34.7</v>
       </c>
       <c r="DS15" t="n" s="11">
-        <v>31.74</v>
+        <v>31.77</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>37.32</v>
-      </c>
-      <c r="DU15" t="s" s="11">
-        <v>44</v>
+        <v>37.7</v>
+      </c>
+      <c r="DU15" t="n" s="11">
+        <v>32.15</v>
       </c>
       <c r="DV15" t="s" s="11">
         <v>44</v>
@@ -6905,37 +6905,37 @@
         <v>106.28</v>
       </c>
       <c r="DK16" t="n" s="11">
-        <v>97.82</v>
+        <v>98.78</v>
       </c>
       <c r="DL16" t="n" s="11">
-        <v>109.0</v>
+        <v>110.07</v>
       </c>
       <c r="DM16" t="n" s="11">
-        <v>100.71</v>
+        <v>101.7</v>
       </c>
       <c r="DN16" t="n" s="11">
-        <v>109.04</v>
+        <v>110.11</v>
       </c>
       <c r="DO16" t="n" s="11">
-        <v>102.37</v>
+        <v>103.37</v>
       </c>
       <c r="DP16" t="n" s="11">
-        <v>129.08</v>
+        <v>130.34</v>
       </c>
       <c r="DQ16" t="n" s="11">
-        <v>105.77</v>
+        <v>106.79</v>
       </c>
       <c r="DR16" t="n" s="11">
-        <v>107.03</v>
+        <v>108.08</v>
       </c>
       <c r="DS16" t="n" s="11">
-        <v>101.66</v>
+        <v>102.87</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>109.56</v>
-      </c>
-      <c r="DU16" t="s" s="11">
-        <v>44</v>
+        <v>111.21</v>
+      </c>
+      <c r="DU16" t="n" s="11">
+        <v>107.06</v>
       </c>
       <c r="DV16" t="s" s="11">
         <v>44</v>
@@ -7285,37 +7285,37 @@
         <v>105.91</v>
       </c>
       <c r="DK17" t="n" s="11">
-        <v>97.5</v>
+        <v>98.47</v>
       </c>
       <c r="DL17" t="n" s="11">
-        <v>108.78</v>
+        <v>109.86</v>
       </c>
       <c r="DM17" t="n" s="11">
-        <v>100.44</v>
+        <v>101.44</v>
       </c>
       <c r="DN17" t="n" s="11">
-        <v>108.67</v>
+        <v>109.73</v>
       </c>
       <c r="DO17" t="n" s="11">
-        <v>101.98</v>
+        <v>102.98</v>
       </c>
       <c r="DP17" t="n" s="11">
-        <v>128.22</v>
+        <v>129.47</v>
       </c>
       <c r="DQ17" t="n" s="11">
-        <v>105.33</v>
+        <v>106.35</v>
       </c>
       <c r="DR17" t="n" s="11">
-        <v>106.53</v>
+        <v>107.56</v>
       </c>
       <c r="DS17" t="n" s="11">
-        <v>101.23</v>
+        <v>102.46</v>
       </c>
       <c r="DT17" t="n" s="11">
-        <v>109.15</v>
-      </c>
-      <c r="DU17" t="s" s="11">
-        <v>44</v>
+        <v>110.82</v>
+      </c>
+      <c r="DU17" t="n" s="11">
+        <v>106.68</v>
       </c>
       <c r="DV17" t="s" s="11">
         <v>44</v>
@@ -7694,13 +7694,13 @@
         <v>19578.0</v>
       </c>
       <c r="DS19" t="n" s="11">
-        <v>19060.0</v>
+        <v>19057.0</v>
       </c>
       <c r="DT19" t="n" s="11">
-        <v>19216.0</v>
-      </c>
-      <c r="DU19" t="s" s="11">
-        <v>44</v>
+        <v>19297.0</v>
+      </c>
+      <c r="DU19" t="n" s="11">
+        <v>20279.0</v>
       </c>
       <c r="DV19" t="s" s="11">
         <v>44</v>
@@ -8074,13 +8074,13 @@
         <v>58.03</v>
       </c>
       <c r="DS20" t="n" s="11">
-        <v>56.65</v>
+        <v>56.7</v>
       </c>
       <c r="DT20" t="n" s="11">
-        <v>60.77</v>
-      </c>
-      <c r="DU20" t="s" s="11">
-        <v>44</v>
+        <v>61.02</v>
+      </c>
+      <c r="DU20" t="n" s="11">
+        <v>57.78</v>
       </c>
       <c r="DV20" t="s" s="11">
         <v>44</v>
@@ -8454,13 +8454,13 @@
         <v>101.82</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>98.62</v>
+        <v>98.75</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>99.34</v>
-      </c>
-      <c r="DU21" t="s" s="11">
-        <v>44</v>
+        <v>99.83</v>
+      </c>
+      <c r="DU21" t="n" s="11">
+        <v>102.22</v>
       </c>
       <c r="DV21" t="s" s="11">
         <v>44</v>
@@ -8834,13 +8834,13 @@
         <v>105.7</v>
       </c>
       <c r="DS22" t="n" s="11">
-        <v>102.67</v>
+        <v>102.89</v>
       </c>
       <c r="DT22" t="n" s="11">
-        <v>110.04</v>
-      </c>
-      <c r="DU22" t="s" s="11">
-        <v>44</v>
+        <v>110.56</v>
+      </c>
+      <c r="DU22" t="n" s="11">
+        <v>102.01</v>
       </c>
       <c r="DV22" t="s" s="11">
         <v>44</v>
@@ -9214,13 +9214,13 @@
         <v>12390.0</v>
       </c>
       <c r="DS23" t="n" s="11">
-        <v>10956.0</v>
+        <v>10955.0</v>
       </c>
       <c r="DT23" t="n" s="11">
-        <v>11284.0</v>
-      </c>
-      <c r="DU23" t="s" s="11">
-        <v>44</v>
+        <v>11327.0</v>
+      </c>
+      <c r="DU23" t="n" s="11">
+        <v>11585.0</v>
       </c>
       <c r="DV23" t="s" s="11">
         <v>44</v>
@@ -9594,13 +9594,13 @@
         <v>37.81</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>33.66</v>
+        <v>33.68</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>36.83</v>
-      </c>
-      <c r="DU24" t="s" s="11">
-        <v>44</v>
+        <v>36.99</v>
+      </c>
+      <c r="DU24" t="n" s="11">
+        <v>34.23</v>
       </c>
       <c r="DV24" t="s" s="11">
         <v>44</v>
@@ -9974,13 +9974,13 @@
         <v>10166.0</v>
       </c>
       <c r="DS25" t="n" s="11">
-        <v>8902.0</v>
+        <v>8901.0</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>9178.0</v>
-      </c>
-      <c r="DU25" t="s" s="11">
-        <v>44</v>
+        <v>9220.0</v>
+      </c>
+      <c r="DU25" t="n" s="11">
+        <v>9508.0</v>
       </c>
       <c r="DV25" t="s" s="11">
         <v>44</v>
@@ -10354,13 +10354,13 @@
         <v>31.02</v>
       </c>
       <c r="DS26" t="n" s="11">
-        <v>27.34</v>
+        <v>27.37</v>
       </c>
       <c r="DT26" t="n" s="11">
-        <v>29.96</v>
-      </c>
-      <c r="DU26" t="s" s="11">
-        <v>44</v>
+        <v>30.11</v>
+      </c>
+      <c r="DU26" t="n" s="11">
+        <v>28.09</v>
       </c>
       <c r="DV26" t="s" s="11">
         <v>44</v>
@@ -10734,13 +10734,13 @@
         <v>120.65</v>
       </c>
       <c r="DS27" t="n" s="11">
-        <v>110.14</v>
+        <v>109.98</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>112.62</v>
-      </c>
-      <c r="DU27" t="s" s="11">
-        <v>44</v>
+        <v>112.5</v>
+      </c>
+      <c r="DU27" t="n" s="11">
+        <v>112.37</v>
       </c>
       <c r="DV27" t="s" s="11">
         <v>44</v>
@@ -11114,13 +11114,13 @@
         <v>118.51</v>
       </c>
       <c r="DS28" t="n" s="11">
-        <v>108.61</v>
+        <v>108.47</v>
       </c>
       <c r="DT28" t="n" s="11">
-        <v>110.91</v>
-      </c>
-      <c r="DU28" t="s" s="11">
-        <v>44</v>
+        <v>110.86</v>
+      </c>
+      <c r="DU28" t="n" s="11">
+        <v>111.17</v>
       </c>
       <c r="DV28" t="s" s="11">
         <v>44</v>
@@ -11480,37 +11480,37 @@
         <v>21788.0</v>
       </c>
       <c r="DK31" t="n" s="11">
-        <v>21826.0</v>
+        <v>21875.0</v>
       </c>
       <c r="DL31" t="n" s="11">
-        <v>21695.0</v>
+        <v>21741.0</v>
       </c>
       <c r="DM31" t="n" s="11">
-        <v>21721.0</v>
+        <v>21772.0</v>
       </c>
       <c r="DN31" t="n" s="11">
-        <v>21887.0</v>
+        <v>21936.0</v>
       </c>
       <c r="DO31" t="n" s="11">
-        <v>21223.0</v>
+        <v>21272.0</v>
       </c>
       <c r="DP31" t="n" s="11">
-        <v>17331.0</v>
+        <v>17371.0</v>
       </c>
       <c r="DQ31" t="n" s="11">
-        <v>20116.0</v>
+        <v>20165.0</v>
       </c>
       <c r="DR31" t="n" s="11">
-        <v>21487.0</v>
+        <v>21537.0</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>21815.0</v>
+        <v>21835.0</v>
       </c>
       <c r="DT31" t="n" s="11">
         <v>21537.0</v>
       </c>
-      <c r="DU31" t="s" s="11">
-        <v>44</v>
+      <c r="DU31" t="n" s="11">
+        <v>21467.0</v>
       </c>
       <c r="DV31" t="s" s="11">
         <v>44</v>
@@ -11860,37 +11860,37 @@
         <v>59.89</v>
       </c>
       <c r="DK32" t="n" s="11">
-        <v>59.64</v>
+        <v>59.77</v>
       </c>
       <c r="DL32" t="n" s="11">
-        <v>59.78</v>
+        <v>59.91</v>
       </c>
       <c r="DM32" t="n" s="11">
-        <v>59.72</v>
+        <v>59.85</v>
       </c>
       <c r="DN32" t="n" s="11">
-        <v>60.64</v>
+        <v>60.77</v>
       </c>
       <c r="DO32" t="n" s="11">
-        <v>58.98</v>
+        <v>59.12</v>
       </c>
       <c r="DP32" t="n" s="11">
-        <v>53.16</v>
+        <v>53.29</v>
       </c>
       <c r="DQ32" t="n" s="11">
-        <v>57.98</v>
+        <v>58.11</v>
       </c>
       <c r="DR32" t="n" s="11">
-        <v>61.14</v>
+        <v>61.28</v>
       </c>
       <c r="DS32" t="n" s="11">
-        <v>61.61</v>
+        <v>61.73</v>
       </c>
       <c r="DT32" t="n" s="11">
-        <v>60.6</v>
-      </c>
-      <c r="DU32" t="s" s="11">
-        <v>44</v>
+        <v>60.83</v>
+      </c>
+      <c r="DU32" t="n" s="11">
+        <v>59.82</v>
       </c>
       <c r="DV32" t="s" s="11">
         <v>44</v>
@@ -12240,37 +12240,37 @@
         <v>105.13</v>
       </c>
       <c r="DK33" t="n" s="11">
-        <v>106.29</v>
+        <v>105.25</v>
       </c>
       <c r="DL33" t="n" s="11">
-        <v>104.84</v>
+        <v>103.81</v>
       </c>
       <c r="DM33" t="n" s="11">
-        <v>104.48</v>
+        <v>103.47</v>
       </c>
       <c r="DN33" t="n" s="11">
-        <v>104.17</v>
+        <v>103.17</v>
       </c>
       <c r="DO33" t="n" s="11">
-        <v>101.07</v>
+        <v>100.1</v>
       </c>
       <c r="DP33" t="n" s="11">
-        <v>82.8</v>
+        <v>81.99</v>
       </c>
       <c r="DQ33" t="n" s="11">
-        <v>96.19</v>
+        <v>95.28</v>
       </c>
       <c r="DR33" t="n" s="11">
-        <v>103.4</v>
+        <v>102.41</v>
       </c>
       <c r="DS33" t="n" s="11">
-        <v>102.75</v>
+        <v>101.56</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>101.41</v>
-      </c>
-      <c r="DU33" t="s" s="11">
-        <v>44</v>
+        <v>100.53</v>
+      </c>
+      <c r="DU33" t="n" s="11">
+        <v>98.54</v>
       </c>
       <c r="DV33" t="s" s="11">
         <v>44</v>
@@ -12620,37 +12620,37 @@
         <v>106.63</v>
       </c>
       <c r="DK34" t="n" s="11">
-        <v>107.18</v>
+        <v>106.12</v>
       </c>
       <c r="DL34" t="n" s="11">
-        <v>106.61</v>
+        <v>105.56</v>
       </c>
       <c r="DM34" t="n" s="11">
-        <v>106.0</v>
+        <v>104.97</v>
       </c>
       <c r="DN34" t="n" s="11">
-        <v>106.51</v>
+        <v>105.48</v>
       </c>
       <c r="DO34" t="n" s="11">
-        <v>103.66</v>
+        <v>102.66</v>
       </c>
       <c r="DP34" t="n" s="11">
-        <v>93.74</v>
+        <v>92.82</v>
       </c>
       <c r="DQ34" t="n" s="11">
-        <v>102.31</v>
+        <v>101.33</v>
       </c>
       <c r="DR34" t="n" s="11">
-        <v>108.58</v>
+        <v>107.53</v>
       </c>
       <c r="DS34" t="n" s="11">
-        <v>107.08</v>
+        <v>105.94</v>
       </c>
       <c r="DT34" t="n" s="11">
-        <v>105.28</v>
-      </c>
-      <c r="DU34" t="s" s="11">
-        <v>44</v>
+        <v>104.78</v>
+      </c>
+      <c r="DU34" t="n" s="11">
+        <v>101.34</v>
       </c>
       <c r="DV34" t="s" s="11">
         <v>44</v>
@@ -13024,13 +13024,13 @@
         <v>14484.0</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>14552.0</v>
+        <v>14555.0</v>
       </c>
       <c r="DT35" t="n" s="11">
-        <v>14195.0</v>
-      </c>
-      <c r="DU35" t="s" s="11">
-        <v>44</v>
+        <v>14283.0</v>
+      </c>
+      <c r="DU35" t="n" s="11">
+        <v>14933.0</v>
       </c>
       <c r="DV35" t="s" s="11">
         <v>44</v>
@@ -13404,13 +13404,13 @@
         <v>41.05</v>
       </c>
       <c r="DS36" t="n" s="11">
-        <v>41.67</v>
+        <v>41.72</v>
       </c>
       <c r="DT36" t="n" s="11">
-        <v>40.24</v>
-      </c>
-      <c r="DU36" t="s" s="11">
-        <v>44</v>
+        <v>40.65</v>
+      </c>
+      <c r="DU36" t="n" s="11">
+        <v>41.89</v>
       </c>
       <c r="DV36" t="s" s="11">
         <v>44</v>
@@ -13784,13 +13784,13 @@
         <v>11884.0</v>
       </c>
       <c r="DS37" t="n" s="11">
-        <v>11945.0</v>
+        <v>11944.0</v>
       </c>
       <c r="DT37" t="n" s="11">
-        <v>11642.0</v>
-      </c>
-      <c r="DU37" t="s" s="11">
-        <v>44</v>
+        <v>11713.0</v>
+      </c>
+      <c r="DU37" t="n" s="11">
+        <v>12289.0</v>
       </c>
       <c r="DV37" t="s" s="11">
         <v>44</v>
@@ -14164,13 +14164,13 @@
         <v>33.69</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>34.21</v>
+        <v>34.24</v>
       </c>
       <c r="DT38" t="n" s="11">
-        <v>33.0</v>
-      </c>
-      <c r="DU38" t="s" s="11">
-        <v>44</v>
+        <v>33.34</v>
+      </c>
+      <c r="DU38" t="n" s="11">
+        <v>34.48</v>
       </c>
       <c r="DV38" t="s" s="11">
         <v>44</v>
@@ -14520,37 +14520,37 @@
         <v>101.85</v>
       </c>
       <c r="DK39" t="n" s="11">
-        <v>101.7</v>
+        <v>102.71</v>
       </c>
       <c r="DL39" t="n" s="11">
-        <v>102.94</v>
+        <v>103.96</v>
       </c>
       <c r="DM39" t="n" s="11">
-        <v>106.21</v>
+        <v>107.25</v>
       </c>
       <c r="DN39" t="n" s="11">
-        <v>103.94</v>
+        <v>104.94</v>
       </c>
       <c r="DO39" t="n" s="11">
-        <v>107.31</v>
+        <v>108.35</v>
       </c>
       <c r="DP39" t="n" s="11">
-        <v>121.69</v>
+        <v>122.89</v>
       </c>
       <c r="DQ39" t="n" s="11">
-        <v>111.95</v>
+        <v>113.01</v>
       </c>
       <c r="DR39" t="n" s="11">
-        <v>104.56</v>
+        <v>105.57</v>
       </c>
       <c r="DS39" t="n" s="11">
-        <v>105.72</v>
+        <v>106.98</v>
       </c>
       <c r="DT39" t="n" s="11">
-        <v>104.5</v>
-      </c>
-      <c r="DU39" t="s" s="11">
-        <v>44</v>
+        <v>106.07</v>
+      </c>
+      <c r="DU39" t="n" s="11">
+        <v>113.13</v>
       </c>
       <c r="DV39" t="s" s="11">
         <v>44</v>
@@ -14900,37 +14900,37 @@
         <v>101.97</v>
       </c>
       <c r="DK40" t="n" s="11">
-        <v>101.63</v>
+        <v>102.65</v>
       </c>
       <c r="DL40" t="n" s="11">
-        <v>103.46</v>
+        <v>104.49</v>
       </c>
       <c r="DM40" t="n" s="11">
-        <v>105.64</v>
+        <v>106.68</v>
       </c>
       <c r="DN40" t="n" s="11">
-        <v>104.6</v>
+        <v>105.62</v>
       </c>
       <c r="DO40" t="n" s="11">
-        <v>106.29</v>
+        <v>107.33</v>
       </c>
       <c r="DP40" t="n" s="11">
-        <v>121.79</v>
+        <v>123.0</v>
       </c>
       <c r="DQ40" t="n" s="11">
-        <v>110.72</v>
+        <v>111.79</v>
       </c>
       <c r="DR40" t="n" s="11">
-        <v>102.54</v>
+        <v>103.54</v>
       </c>
       <c r="DS40" t="n" s="11">
-        <v>105.56</v>
+        <v>106.82</v>
       </c>
       <c r="DT40" t="n" s="11">
-        <v>103.67</v>
-      </c>
-      <c r="DU40" t="s" s="11">
-        <v>44</v>
+        <v>105.24</v>
+      </c>
+      <c r="DU40" t="n" s="11">
+        <v>112.13</v>
       </c>
       <c r="DV40" t="s" s="11">
         <v>44</v>
@@ -15057,7 +15057,7 @@
         <v>13139.0</v>
       </c>
       <c r="AM42" t="n" s="11">
-        <v>13161.0</v>
+        <v>13162.0</v>
       </c>
       <c r="AN42" t="n" s="11">
         <v>13202.0</v>
@@ -15273,13 +15273,13 @@
         <v>18731.0</v>
       </c>
       <c r="DG42" t="n" s="11">
-        <v>18656.0</v>
+        <v>18655.0</v>
       </c>
       <c r="DH42" t="n" s="11">
-        <v>18797.0</v>
+        <v>18796.0</v>
       </c>
       <c r="DI42" t="n" s="11">
-        <v>18766.0</v>
+        <v>18767.0</v>
       </c>
       <c r="DJ42" t="n" s="11">
         <v>18957.0</v>
@@ -15288,34 +15288,34 @@
         <v>19101.0</v>
       </c>
       <c r="DL42" t="n" s="11">
-        <v>19091.0</v>
+        <v>19090.0</v>
       </c>
       <c r="DM42" t="n" s="11">
-        <v>19277.0</v>
+        <v>19279.0</v>
       </c>
       <c r="DN42" t="n" s="11">
-        <v>19387.0</v>
+        <v>19388.0</v>
       </c>
       <c r="DO42" t="n" s="11">
-        <v>19106.0</v>
+        <v>19105.0</v>
       </c>
       <c r="DP42" t="n" s="11">
-        <v>17546.0</v>
+        <v>17545.0</v>
       </c>
       <c r="DQ42" t="n" s="11">
-        <v>18987.0</v>
+        <v>18990.0</v>
       </c>
       <c r="DR42" t="n" s="11">
         <v>19195.0</v>
       </c>
       <c r="DS42" t="n" s="11">
-        <v>19166.0</v>
+        <v>19163.0</v>
       </c>
       <c r="DT42" t="n" s="11">
-        <v>19401.0</v>
-      </c>
-      <c r="DU42" t="s" s="11">
-        <v>44</v>
+        <v>19479.0</v>
+      </c>
+      <c r="DU42" t="n" s="11">
+        <v>20220.0</v>
       </c>
       <c r="DV42" t="s" s="11">
         <v>44</v>
@@ -15344,10 +15344,10 @@
         <v>27.79</v>
       </c>
       <c r="H43" t="n" s="11">
-        <v>28.01</v>
+        <v>28.02</v>
       </c>
       <c r="I43" t="n" s="11">
-        <v>28.54</v>
+        <v>28.53</v>
       </c>
       <c r="J43" t="n" s="11">
         <v>29.08</v>
@@ -15356,34 +15356,34 @@
         <v>29.43</v>
       </c>
       <c r="L43" t="n" s="11">
-        <v>29.93</v>
+        <v>29.94</v>
       </c>
       <c r="M43" t="n" s="11">
-        <v>30.24</v>
+        <v>30.23</v>
       </c>
       <c r="N43" t="n" s="11">
         <v>30.5</v>
       </c>
       <c r="O43" t="n" s="11">
-        <v>31.02</v>
+        <v>31.03</v>
       </c>
       <c r="P43" t="n" s="11">
         <v>31.26</v>
       </c>
       <c r="Q43" t="n" s="11">
-        <v>31.53</v>
+        <v>31.52</v>
       </c>
       <c r="R43" t="n" s="11">
         <v>31.92</v>
       </c>
       <c r="S43" t="n" s="11">
-        <v>31.95</v>
+        <v>31.96</v>
       </c>
       <c r="T43" t="n" s="11">
-        <v>32.61</v>
+        <v>32.62</v>
       </c>
       <c r="U43" t="n" s="11">
-        <v>32.64</v>
+        <v>32.63</v>
       </c>
       <c r="V43" t="n" s="11">
         <v>32.96</v>
@@ -15395,7 +15395,7 @@
         <v>33.15</v>
       </c>
       <c r="Y43" t="n" s="11">
-        <v>33.29</v>
+        <v>33.28</v>
       </c>
       <c r="Z43" t="n" s="11">
         <v>33.81</v>
@@ -15407,16 +15407,16 @@
         <v>33.95</v>
       </c>
       <c r="AC43" t="n" s="11">
-        <v>34.26</v>
+        <v>34.25</v>
       </c>
       <c r="AD43" t="n" s="11">
         <v>34.58</v>
       </c>
       <c r="AE43" t="n" s="11">
-        <v>34.92</v>
+        <v>34.93</v>
       </c>
       <c r="AF43" t="n" s="11">
-        <v>34.8</v>
+        <v>34.81</v>
       </c>
       <c r="AG43" t="n" s="11">
         <v>34.78</v>
@@ -15656,46 +15656,46 @@
         <v>54.09</v>
       </c>
       <c r="DH43" t="n" s="11">
-        <v>53.98</v>
+        <v>53.97</v>
       </c>
       <c r="DI43" t="n" s="11">
-        <v>54.13</v>
+        <v>54.14</v>
       </c>
       <c r="DJ43" t="n" s="11">
         <v>54.68</v>
       </c>
       <c r="DK43" t="n" s="11">
-        <v>54.93</v>
+        <v>54.92</v>
       </c>
       <c r="DL43" t="n" s="11">
-        <v>55.38</v>
+        <v>55.37</v>
       </c>
       <c r="DM43" t="n" s="11">
-        <v>55.6</v>
+        <v>55.61</v>
       </c>
       <c r="DN43" t="n" s="11">
-        <v>56.25</v>
+        <v>56.26</v>
       </c>
       <c r="DO43" t="n" s="11">
-        <v>56.63</v>
+        <v>56.61</v>
       </c>
       <c r="DP43" t="n" s="11">
-        <v>55.83</v>
+        <v>55.81</v>
       </c>
       <c r="DQ43" t="n" s="11">
-        <v>56.26</v>
+        <v>56.28</v>
       </c>
       <c r="DR43" t="n" s="11">
-        <v>57.81</v>
+        <v>57.82</v>
       </c>
       <c r="DS43" t="n" s="11">
-        <v>58.26</v>
+        <v>58.27</v>
       </c>
       <c r="DT43" t="n" s="11">
-        <v>58.06</v>
-      </c>
-      <c r="DU43" t="s" s="11">
-        <v>44</v>
+        <v>58.27</v>
+      </c>
+      <c r="DU43" t="n" s="11">
+        <v>58.85</v>
       </c>
       <c r="DV43" t="s" s="11">
         <v>44</v>
@@ -15817,7 +15817,7 @@
         <v>90.46</v>
       </c>
       <c r="AM44" t="n" s="11">
-        <v>90.9</v>
+        <v>90.91</v>
       </c>
       <c r="AN44" t="n" s="11">
         <v>91.35</v>
@@ -16000,7 +16000,7 @@
         <v>99.53</v>
       </c>
       <c r="CV44" t="n" s="11">
-        <v>99.86</v>
+        <v>99.85</v>
       </c>
       <c r="CW44" t="n" s="11">
         <v>100.04</v>
@@ -16048,34 +16048,34 @@
         <v>102.71</v>
       </c>
       <c r="DL44" t="n" s="11">
-        <v>101.98</v>
+        <v>101.97</v>
       </c>
       <c r="DM44" t="n" s="11">
-        <v>102.37</v>
+        <v>102.38</v>
       </c>
       <c r="DN44" t="n" s="11">
         <v>102.18</v>
       </c>
       <c r="DO44" t="n" s="11">
-        <v>100.29</v>
+        <v>100.28</v>
       </c>
       <c r="DP44" t="n" s="11">
-        <v>91.5</v>
+        <v>91.49</v>
       </c>
       <c r="DQ44" t="n" s="11">
-        <v>99.9</v>
+        <v>99.92</v>
       </c>
       <c r="DR44" t="n" s="11">
-        <v>100.57</v>
+        <v>100.58</v>
       </c>
       <c r="DS44" t="n" s="11">
-        <v>98.65</v>
+        <v>98.77</v>
       </c>
       <c r="DT44" t="n" s="11">
-        <v>100.09</v>
-      </c>
-      <c r="DU44" t="s" s="11">
-        <v>44</v>
+        <v>100.56</v>
+      </c>
+      <c r="DU44" t="n" s="11">
+        <v>101.88</v>
       </c>
       <c r="DV44" t="s" s="11">
         <v>44</v>
@@ -16095,43 +16095,43 @@
         <v>72.92</v>
       </c>
       <c r="E45" t="n" s="11">
-        <v>73.45</v>
+        <v>73.44</v>
       </c>
       <c r="F45" t="n" s="11">
-        <v>74.3</v>
+        <v>74.31</v>
       </c>
       <c r="G45" t="n" s="11">
-        <v>75.04</v>
+        <v>75.05</v>
       </c>
       <c r="H45" t="n" s="11">
         <v>74.61</v>
       </c>
       <c r="I45" t="n" s="11">
-        <v>75.37</v>
+        <v>75.35</v>
       </c>
       <c r="J45" t="n" s="11">
         <v>75.77</v>
       </c>
       <c r="K45" t="n" s="11">
-        <v>76.03</v>
+        <v>76.04</v>
       </c>
       <c r="L45" t="n" s="11">
-        <v>76.35</v>
+        <v>76.36</v>
       </c>
       <c r="M45" t="n" s="11">
-        <v>77.09</v>
+        <v>77.07</v>
       </c>
       <c r="N45" t="n" s="11">
-        <v>77.12</v>
+        <v>77.13</v>
       </c>
       <c r="O45" t="n" s="11">
-        <v>78.03</v>
+        <v>78.04</v>
       </c>
       <c r="P45" t="n" s="11">
-        <v>78.43</v>
+        <v>78.44</v>
       </c>
       <c r="Q45" t="n" s="11">
-        <v>78.74</v>
+        <v>78.73</v>
       </c>
       <c r="R45" t="n" s="11">
         <v>79.37</v>
@@ -16140,22 +16140,22 @@
         <v>79.05</v>
       </c>
       <c r="T45" t="n" s="11">
-        <v>80.03</v>
+        <v>80.04</v>
       </c>
       <c r="U45" t="n" s="11">
-        <v>79.78</v>
+        <v>79.77</v>
       </c>
       <c r="V45" t="n" s="11">
         <v>80.46</v>
       </c>
       <c r="W45" t="n" s="11">
-        <v>80.28</v>
+        <v>80.29</v>
       </c>
       <c r="X45" t="n" s="11">
-        <v>80.93</v>
+        <v>80.94</v>
       </c>
       <c r="Y45" t="n" s="11">
-        <v>81.15</v>
+        <v>81.13</v>
       </c>
       <c r="Z45" t="n" s="11">
         <v>82.38</v>
@@ -16164,52 +16164,52 @@
         <v>82.73</v>
       </c>
       <c r="AB45" t="n" s="11">
-        <v>82.83</v>
+        <v>82.84</v>
       </c>
       <c r="AC45" t="n" s="11">
-        <v>83.13</v>
+        <v>83.11</v>
       </c>
       <c r="AD45" t="n" s="11">
         <v>83.98</v>
       </c>
       <c r="AE45" t="n" s="11">
-        <v>84.73</v>
+        <v>84.74</v>
       </c>
       <c r="AF45" t="n" s="11">
         <v>84.07</v>
       </c>
       <c r="AG45" t="n" s="11">
-        <v>83.97</v>
+        <v>83.96</v>
       </c>
       <c r="AH45" t="n" s="11">
         <v>83.3</v>
       </c>
       <c r="AI45" t="n" s="11">
-        <v>84.74</v>
+        <v>84.75</v>
       </c>
       <c r="AJ45" t="n" s="11">
         <v>84.53</v>
       </c>
       <c r="AK45" t="n" s="11">
-        <v>85.32</v>
+        <v>85.31</v>
       </c>
       <c r="AL45" t="n" s="11">
         <v>85.27</v>
       </c>
       <c r="AM45" t="n" s="11">
-        <v>86.4</v>
+        <v>86.41</v>
       </c>
       <c r="AN45" t="n" s="11">
         <v>87.36</v>
       </c>
       <c r="AO45" t="n" s="11">
-        <v>87.21</v>
+        <v>87.2</v>
       </c>
       <c r="AP45" t="n" s="11">
         <v>87.3</v>
       </c>
       <c r="AQ45" t="n" s="11">
-        <v>88.89</v>
+        <v>88.9</v>
       </c>
       <c r="AR45" t="n" s="11">
         <v>89.21</v>
@@ -16245,7 +16245,7 @@
         <v>91.68</v>
       </c>
       <c r="BC45" t="n" s="11">
-        <v>91.11</v>
+        <v>91.12</v>
       </c>
       <c r="BD45" t="n" s="11">
         <v>91.96</v>
@@ -16386,7 +16386,7 @@
         <v>100.44</v>
       </c>
       <c r="CX45" t="n" s="11">
-        <v>100.39</v>
+        <v>100.38</v>
       </c>
       <c r="CY45" t="n" s="11">
         <v>101.36</v>
@@ -16413,49 +16413,49 @@
         <v>104.22</v>
       </c>
       <c r="DG45" t="n" s="11">
-        <v>103.85</v>
+        <v>103.84</v>
       </c>
       <c r="DH45" t="n" s="11">
-        <v>103.09</v>
+        <v>103.08</v>
       </c>
       <c r="DI45" t="n" s="11">
-        <v>102.86</v>
+        <v>102.87</v>
       </c>
       <c r="DJ45" t="n" s="11">
         <v>103.02</v>
       </c>
       <c r="DK45" t="n" s="11">
-        <v>103.46</v>
+        <v>103.44</v>
       </c>
       <c r="DL45" t="n" s="11">
-        <v>103.61</v>
+        <v>103.6</v>
       </c>
       <c r="DM45" t="n" s="11">
-        <v>103.4</v>
+        <v>103.42</v>
       </c>
       <c r="DN45" t="n" s="11">
-        <v>103.83</v>
+        <v>103.84</v>
       </c>
       <c r="DO45" t="n" s="11">
-        <v>104.1</v>
+        <v>104.07</v>
       </c>
       <c r="DP45" t="n" s="11">
-        <v>101.97</v>
+        <v>101.94</v>
       </c>
       <c r="DQ45" t="n" s="11">
-        <v>103.68</v>
+        <v>103.71</v>
       </c>
       <c r="DR45" t="n" s="11">
-        <v>106.08</v>
+        <v>106.1</v>
       </c>
       <c r="DS45" t="n" s="11">
-        <v>105.01</v>
+        <v>105.2</v>
       </c>
       <c r="DT45" t="n" s="11">
-        <v>104.91</v>
-      </c>
-      <c r="DU45" t="s" s="11">
-        <v>44</v>
+        <v>105.36</v>
+      </c>
+      <c r="DU45" t="n" s="11">
+        <v>103.84</v>
       </c>
       <c r="DV45" t="s" s="11">
         <v>44</v>
@@ -16553,7 +16553,7 @@
         <v>7542.0</v>
       </c>
       <c r="AE46" t="n" s="11">
-        <v>7548.0</v>
+        <v>7547.0</v>
       </c>
       <c r="AF46" t="n" s="11">
         <v>7577.0</v>
@@ -16562,7 +16562,7 @@
         <v>7580.0</v>
       </c>
       <c r="AH46" t="n" s="11">
-        <v>7613.0</v>
+        <v>7612.0</v>
       </c>
       <c r="AI46" t="n" s="11">
         <v>7595.0</v>
@@ -16601,7 +16601,7 @@
         <v>8013.0</v>
       </c>
       <c r="AU46" t="n" s="11">
-        <v>7971.0</v>
+        <v>7970.0</v>
       </c>
       <c r="AV46" t="n" s="11">
         <v>7991.0</v>
@@ -16643,7 +16643,7 @@
         <v>8243.0</v>
       </c>
       <c r="BI46" t="n" s="11">
-        <v>8228.0</v>
+        <v>8229.0</v>
       </c>
       <c r="BJ46" t="n" s="11">
         <v>8226.0</v>
@@ -16652,7 +16652,7 @@
         <v>8301.0</v>
       </c>
       <c r="BL46" t="n" s="11">
-        <v>8303.0</v>
+        <v>8302.0</v>
       </c>
       <c r="BM46" t="n" s="11">
         <v>8354.0</v>
@@ -16787,7 +16787,7 @@
         <v>10547.0</v>
       </c>
       <c r="DE46" t="n" s="11">
-        <v>10603.0</v>
+        <v>10604.0</v>
       </c>
       <c r="DF46" t="n" s="11">
         <v>10714.0</v>
@@ -16796,7 +16796,7 @@
         <v>10768.0</v>
       </c>
       <c r="DH46" t="n" s="11">
-        <v>10839.0</v>
+        <v>10838.0</v>
       </c>
       <c r="DI46" t="n" s="11">
         <v>10954.0</v>
@@ -16805,13 +16805,13 @@
         <v>11026.0</v>
       </c>
       <c r="DK46" t="n" s="11">
-        <v>11138.0</v>
+        <v>11137.0</v>
       </c>
       <c r="DL46" t="n" s="11">
         <v>11220.0</v>
       </c>
       <c r="DM46" t="n" s="11">
-        <v>11358.0</v>
+        <v>11359.0</v>
       </c>
       <c r="DN46" t="n" s="11">
         <v>11346.0</v>
@@ -16820,22 +16820,22 @@
         <v>11362.0</v>
       </c>
       <c r="DP46" t="n" s="11">
-        <v>10958.0</v>
+        <v>10957.0</v>
       </c>
       <c r="DQ46" t="n" s="11">
-        <v>11380.0</v>
+        <v>11382.0</v>
       </c>
       <c r="DR46" t="n" s="11">
         <v>11521.0</v>
       </c>
       <c r="DS46" t="n" s="11">
-        <v>11461.0</v>
+        <v>11459.0</v>
       </c>
       <c r="DT46" t="n" s="11">
-        <v>11466.0</v>
-      </c>
-      <c r="DU46" t="s" s="11">
-        <v>44</v>
+        <v>11507.0</v>
+      </c>
+      <c r="DU46" t="n" s="11">
+        <v>11779.0</v>
       </c>
       <c r="DV46" t="s" s="11">
         <v>44</v>
@@ -16858,7 +16858,7 @@
         <v>16.56</v>
       </c>
       <c r="F47" t="n" s="11">
-        <v>16.95</v>
+        <v>16.96</v>
       </c>
       <c r="G47" t="n" s="11">
         <v>17.16</v>
@@ -16876,7 +16876,7 @@
         <v>18.62</v>
       </c>
       <c r="L47" t="n" s="11">
-        <v>18.95</v>
+        <v>18.96</v>
       </c>
       <c r="M47" t="n" s="11">
         <v>19.13</v>
@@ -16891,7 +16891,7 @@
         <v>19.53</v>
       </c>
       <c r="Q47" t="n" s="11">
-        <v>19.65</v>
+        <v>19.64</v>
       </c>
       <c r="R47" t="n" s="11">
         <v>19.96</v>
@@ -16900,7 +16900,7 @@
         <v>19.9</v>
       </c>
       <c r="T47" t="n" s="11">
-        <v>20.45</v>
+        <v>20.46</v>
       </c>
       <c r="U47" t="n" s="11">
         <v>20.54</v>
@@ -16915,19 +16915,19 @@
         <v>20.73</v>
       </c>
       <c r="Y47" t="n" s="11">
-        <v>20.8</v>
+        <v>20.79</v>
       </c>
       <c r="Z47" t="n" s="11">
         <v>21.14</v>
       </c>
       <c r="AA47" t="n" s="11">
-        <v>21.53</v>
+        <v>21.54</v>
       </c>
       <c r="AB47" t="n" s="11">
-        <v>20.84</v>
+        <v>20.85</v>
       </c>
       <c r="AC47" t="n" s="11">
-        <v>20.98</v>
+        <v>20.97</v>
       </c>
       <c r="AD47" t="n" s="11">
         <v>21.28</v>
@@ -16960,7 +16960,7 @@
         <v>22.14</v>
       </c>
       <c r="AN47" t="n" s="11">
-        <v>22.6</v>
+        <v>22.61</v>
       </c>
       <c r="AO47" t="n" s="11">
         <v>22.81</v>
@@ -17185,37 +17185,37 @@
         <v>33.17</v>
       </c>
       <c r="DK47" t="n" s="11">
-        <v>33.36</v>
+        <v>33.35</v>
       </c>
       <c r="DL47" t="n" s="11">
-        <v>33.96</v>
+        <v>33.95</v>
       </c>
       <c r="DM47" t="n" s="11">
-        <v>34.01</v>
+        <v>34.02</v>
       </c>
       <c r="DN47" t="n" s="11">
-        <v>34.35</v>
+        <v>34.36</v>
       </c>
       <c r="DO47" t="n" s="11">
-        <v>34.74</v>
+        <v>34.73</v>
       </c>
       <c r="DP47" t="n" s="11">
-        <v>35.83</v>
+        <v>35.82</v>
       </c>
       <c r="DQ47" t="n" s="11">
-        <v>34.78</v>
+        <v>34.79</v>
       </c>
       <c r="DR47" t="n" s="11">
-        <v>35.55</v>
+        <v>35.56</v>
       </c>
       <c r="DS47" t="n" s="11">
-        <v>36.03</v>
+        <v>36.05</v>
       </c>
       <c r="DT47" t="n" s="11">
-        <v>35.34</v>
-      </c>
-      <c r="DU47" t="s" s="11">
-        <v>44</v>
+        <v>35.47</v>
+      </c>
+      <c r="DU47" t="n" s="11">
+        <v>35.45</v>
       </c>
       <c r="DV47" t="s" s="11">
         <v>44</v>
@@ -17340,7 +17340,7 @@
         <v>6220.0</v>
       </c>
       <c r="AN48" t="n" s="11">
-        <v>6246.0</v>
+        <v>6247.0</v>
       </c>
       <c r="AO48" t="n" s="11">
         <v>6296.0</v>
@@ -17391,7 +17391,7 @@
         <v>6634.0</v>
       </c>
       <c r="BE48" t="n" s="11">
-        <v>6641.0</v>
+        <v>6642.0</v>
       </c>
       <c r="BF48" t="n" s="11">
         <v>6651.0</v>
@@ -17412,7 +17412,7 @@
         <v>6699.0</v>
       </c>
       <c r="BL48" t="n" s="11">
-        <v>6719.0</v>
+        <v>6718.0</v>
       </c>
       <c r="BM48" t="n" s="11">
         <v>6755.0</v>
@@ -17424,7 +17424,7 @@
         <v>6786.0</v>
       </c>
       <c r="BP48" t="n" s="11">
-        <v>6822.0</v>
+        <v>6821.0</v>
       </c>
       <c r="BQ48" t="n" s="11">
         <v>6837.0</v>
@@ -17565,13 +17565,13 @@
         <v>9082.0</v>
       </c>
       <c r="DK48" t="n" s="11">
-        <v>9145.0</v>
+        <v>9144.0</v>
       </c>
       <c r="DL48" t="n" s="11">
         <v>9216.0</v>
       </c>
       <c r="DM48" t="n" s="11">
-        <v>9330.0</v>
+        <v>9331.0</v>
       </c>
       <c r="DN48" t="n" s="11">
         <v>9303.0</v>
@@ -17583,19 +17583,19 @@
         <v>8897.0</v>
       </c>
       <c r="DQ48" t="n" s="11">
-        <v>9304.0</v>
+        <v>9305.0</v>
       </c>
       <c r="DR48" t="n" s="11">
         <v>9418.0</v>
       </c>
       <c r="DS48" t="n" s="11">
-        <v>9340.0</v>
+        <v>9338.0</v>
       </c>
       <c r="DT48" t="n" s="11">
-        <v>9353.0</v>
-      </c>
-      <c r="DU48" t="s" s="11">
-        <v>44</v>
+        <v>9394.0</v>
+      </c>
+      <c r="DU48" t="n" s="11">
+        <v>9650.0</v>
       </c>
       <c r="DV48" t="s" s="11">
         <v>44</v>
@@ -17648,7 +17648,7 @@
         <v>15.89</v>
       </c>
       <c r="P49" t="n" s="11">
-        <v>15.93</v>
+        <v>15.94</v>
       </c>
       <c r="Q49" t="n" s="11">
         <v>16.02</v>
@@ -17663,7 +17663,7 @@
         <v>16.62</v>
       </c>
       <c r="U49" t="n" s="11">
-        <v>16.65</v>
+        <v>16.64</v>
       </c>
       <c r="V49" t="n" s="11">
         <v>16.92</v>
@@ -17681,7 +17681,7 @@
         <v>17.15</v>
       </c>
       <c r="AA49" t="n" s="11">
-        <v>17.39</v>
+        <v>17.4</v>
       </c>
       <c r="AB49" t="n" s="11">
         <v>16.85</v>
@@ -17927,10 +17927,10 @@
         <v>26.09</v>
       </c>
       <c r="DE49" t="n" s="11">
-        <v>26.21</v>
+        <v>26.22</v>
       </c>
       <c r="DF49" t="n" s="11">
-        <v>26.63</v>
+        <v>26.64</v>
       </c>
       <c r="DG49" t="n" s="11">
         <v>26.84</v>
@@ -17945,37 +17945,37 @@
         <v>27.32</v>
       </c>
       <c r="DK49" t="n" s="11">
-        <v>27.39</v>
+        <v>27.38</v>
       </c>
       <c r="DL49" t="n" s="11">
-        <v>27.89</v>
+        <v>27.88</v>
       </c>
       <c r="DM49" t="n" s="11">
-        <v>27.94</v>
+        <v>27.95</v>
       </c>
       <c r="DN49" t="n" s="11">
         <v>28.17</v>
       </c>
       <c r="DO49" t="n" s="11">
-        <v>28.52</v>
+        <v>28.51</v>
       </c>
       <c r="DP49" t="n" s="11">
-        <v>29.09</v>
+        <v>29.08</v>
       </c>
       <c r="DQ49" t="n" s="11">
-        <v>28.43</v>
+        <v>28.45</v>
       </c>
       <c r="DR49" t="n" s="11">
         <v>29.06</v>
       </c>
       <c r="DS49" t="n" s="11">
-        <v>29.36</v>
+        <v>29.37</v>
       </c>
       <c r="DT49" t="n" s="11">
-        <v>28.83</v>
-      </c>
-      <c r="DU49" t="s" s="11">
-        <v>44</v>
+        <v>28.96</v>
+      </c>
+      <c r="DU49" t="n" s="11">
+        <v>29.04</v>
       </c>
       <c r="DV49" t="s" s="11">
         <v>44</v>
@@ -18067,7 +18067,7 @@
         <v>82.87</v>
       </c>
       <c r="AC50" t="n" s="11">
-        <v>82.68</v>
+        <v>82.67</v>
       </c>
       <c r="AD50" t="n" s="11">
         <v>82.7</v>
@@ -18076,7 +18076,7 @@
         <v>82.17</v>
       </c>
       <c r="AF50" t="n" s="11">
-        <v>83.31</v>
+        <v>83.32</v>
       </c>
       <c r="AG50" t="n" s="11">
         <v>83.46</v>
@@ -18088,16 +18088,16 @@
         <v>83.54</v>
       </c>
       <c r="AJ50" t="n" s="11">
-        <v>84.76</v>
+        <v>84.77</v>
       </c>
       <c r="AK50" t="n" s="11">
-        <v>84.27</v>
+        <v>84.26</v>
       </c>
       <c r="AL50" t="n" s="11">
         <v>84.27</v>
       </c>
       <c r="AM50" t="n" s="11">
-        <v>84.25</v>
+        <v>84.24</v>
       </c>
       <c r="AN50" t="n" s="11">
         <v>84.23</v>
@@ -18118,7 +18118,7 @@
         <v>84.58</v>
       </c>
       <c r="AT50" t="n" s="11">
-        <v>85.49</v>
+        <v>85.48</v>
       </c>
       <c r="AU50" t="n" s="11">
         <v>85.49</v>
@@ -18136,7 +18136,7 @@
         <v>86.81</v>
       </c>
       <c r="AZ50" t="n" s="11">
-        <v>86.6</v>
+        <v>86.59</v>
       </c>
       <c r="BA50" t="n" s="11">
         <v>86.67</v>
@@ -18166,28 +18166,28 @@
         <v>85.56</v>
       </c>
       <c r="BJ50" t="n" s="11">
-        <v>85.36</v>
+        <v>85.37</v>
       </c>
       <c r="BK50" t="n" s="11">
         <v>84.95</v>
       </c>
       <c r="BL50" t="n" s="11">
-        <v>84.06</v>
+        <v>84.05</v>
       </c>
       <c r="BM50" t="n" s="11">
         <v>84.35</v>
       </c>
       <c r="BN50" t="n" s="11">
-        <v>83.26</v>
+        <v>83.27</v>
       </c>
       <c r="BO50" t="n" s="11">
         <v>83.88</v>
       </c>
       <c r="BP50" t="n" s="11">
-        <v>83.73</v>
+        <v>83.72</v>
       </c>
       <c r="BQ50" t="n" s="11">
-        <v>83.88</v>
+        <v>83.89</v>
       </c>
       <c r="BR50" t="n" s="11">
         <v>83.98</v>
@@ -18199,7 +18199,7 @@
         <v>85.54</v>
       </c>
       <c r="BU50" t="n" s="11">
-        <v>86.64</v>
+        <v>86.65</v>
       </c>
       <c r="BV50" t="n" s="11">
         <v>88.79</v>
@@ -18280,7 +18280,7 @@
         <v>99.31</v>
       </c>
       <c r="CV50" t="n" s="11">
-        <v>100.0</v>
+        <v>100.01</v>
       </c>
       <c r="CW50" t="n" s="11">
         <v>100.24</v>
@@ -18316,10 +18316,10 @@
         <v>104.4</v>
       </c>
       <c r="DH50" t="n" s="11">
-        <v>104.86</v>
+        <v>104.85</v>
       </c>
       <c r="DI50" t="n" s="11">
-        <v>106.67</v>
+        <v>106.68</v>
       </c>
       <c r="DJ50" t="n" s="11">
         <v>107.2</v>
@@ -18337,25 +18337,25 @@
         <v>110.1</v>
       </c>
       <c r="DO50" t="n" s="11">
-        <v>112.33</v>
+        <v>112.35</v>
       </c>
       <c r="DP50" t="n" s="11">
-        <v>118.73</v>
+        <v>118.75</v>
       </c>
       <c r="DQ50" t="n" s="11">
-        <v>112.94</v>
+        <v>112.93</v>
       </c>
       <c r="DR50" t="n" s="11">
-        <v>113.59</v>
+        <v>113.58</v>
       </c>
       <c r="DS50" t="n" s="11">
-        <v>115.18</v>
+        <v>115.02</v>
       </c>
       <c r="DT50" t="n" s="11">
-        <v>113.59</v>
-      </c>
-      <c r="DU50" t="s" s="11">
-        <v>44</v>
+        <v>113.47</v>
+      </c>
+      <c r="DU50" t="n" s="11">
+        <v>114.63</v>
       </c>
       <c r="DV50" t="s" s="11">
         <v>44</v>
@@ -18378,88 +18378,88 @@
         <v>74.7</v>
       </c>
       <c r="F51" t="n" s="11">
-        <v>75.6</v>
+        <v>75.59</v>
       </c>
       <c r="G51" t="n" s="11">
         <v>75.79</v>
       </c>
       <c r="H51" t="n" s="11">
-        <v>78.46</v>
+        <v>78.47</v>
       </c>
       <c r="I51" t="n" s="11">
-        <v>80.67</v>
+        <v>80.68</v>
       </c>
       <c r="J51" t="n" s="11">
         <v>80.56</v>
       </c>
       <c r="K51" t="n" s="11">
-        <v>81.15</v>
+        <v>81.14</v>
       </c>
       <c r="L51" t="n" s="11">
-        <v>82.27</v>
+        <v>82.26</v>
       </c>
       <c r="M51" t="n" s="11">
-        <v>82.24</v>
+        <v>82.25</v>
       </c>
       <c r="N51" t="n" s="11">
-        <v>83.05</v>
+        <v>83.04</v>
       </c>
       <c r="O51" t="n" s="11">
-        <v>82.7</v>
+        <v>82.69</v>
       </c>
       <c r="P51" t="n" s="11">
         <v>82.51</v>
       </c>
       <c r="Q51" t="n" s="11">
-        <v>82.68</v>
+        <v>82.66</v>
       </c>
       <c r="R51" t="n" s="11">
-        <v>83.32</v>
+        <v>83.33</v>
       </c>
       <c r="S51" t="n" s="11">
-        <v>83.39</v>
+        <v>83.4</v>
       </c>
       <c r="T51" t="n" s="11">
         <v>84.68</v>
       </c>
       <c r="U51" t="n" s="11">
-        <v>85.33</v>
+        <v>85.31</v>
       </c>
       <c r="V51" t="n" s="11">
-        <v>85.81</v>
+        <v>85.82</v>
       </c>
       <c r="W51" t="n" s="11">
-        <v>85.68</v>
+        <v>85.66</v>
       </c>
       <c r="X51" t="n" s="11">
-        <v>84.86</v>
+        <v>84.88</v>
       </c>
       <c r="Y51" t="n" s="11">
-        <v>84.92</v>
+        <v>84.91</v>
       </c>
       <c r="Z51" t="n" s="11">
         <v>85.03</v>
       </c>
       <c r="AA51" t="n" s="11">
-        <v>86.24</v>
+        <v>86.26</v>
       </c>
       <c r="AB51" t="n" s="11">
         <v>83.38</v>
       </c>
       <c r="AC51" t="n" s="11">
-        <v>83.62</v>
+        <v>83.61</v>
       </c>
       <c r="AD51" t="n" s="11">
-        <v>83.97</v>
+        <v>83.98</v>
       </c>
       <c r="AE51" t="n" s="11">
-        <v>83.51</v>
+        <v>83.5</v>
       </c>
       <c r="AF51" t="n" s="11">
         <v>84.73</v>
       </c>
       <c r="AG51" t="n" s="11">
-        <v>84.38</v>
+        <v>84.37</v>
       </c>
       <c r="AH51" t="n" s="11">
         <v>85.15</v>
@@ -18471,25 +18471,25 @@
         <v>86.0</v>
       </c>
       <c r="AK51" t="n" s="11">
-        <v>85.4</v>
+        <v>85.39</v>
       </c>
       <c r="AL51" t="n" s="11">
         <v>84.95</v>
       </c>
       <c r="AM51" t="n" s="11">
-        <v>84.92</v>
+        <v>84.91</v>
       </c>
       <c r="AN51" t="n" s="11">
-        <v>85.74</v>
+        <v>85.75</v>
       </c>
       <c r="AO51" t="n" s="11">
-        <v>86.65</v>
+        <v>86.66</v>
       </c>
       <c r="AP51" t="n" s="11">
         <v>87.12</v>
       </c>
       <c r="AQ51" t="n" s="11">
-        <v>85.04</v>
+        <v>85.03</v>
       </c>
       <c r="AR51" t="n" s="11">
         <v>85.84</v>
@@ -18525,7 +18525,7 @@
         <v>87.64</v>
       </c>
       <c r="BC51" t="n" s="11">
-        <v>87.62</v>
+        <v>87.61</v>
       </c>
       <c r="BD51" t="n" s="11">
         <v>87.33</v>
@@ -18534,7 +18534,7 @@
         <v>87.5</v>
       </c>
       <c r="BF51" t="n" s="11">
-        <v>87.16</v>
+        <v>87.15</v>
       </c>
       <c r="BG51" t="n" s="11">
         <v>88.71</v>
@@ -18666,7 +18666,7 @@
         <v>100.02</v>
       </c>
       <c r="CX51" t="n" s="11">
-        <v>100.13</v>
+        <v>100.14</v>
       </c>
       <c r="CY51" t="n" s="11">
         <v>101.19</v>
@@ -18687,55 +18687,55 @@
         <v>102.24</v>
       </c>
       <c r="DE51" t="n" s="11">
-        <v>102.34</v>
+        <v>102.35</v>
       </c>
       <c r="DF51" t="n" s="11">
-        <v>103.01</v>
+        <v>103.02</v>
       </c>
       <c r="DG51" t="n" s="11">
-        <v>103.82</v>
+        <v>103.83</v>
       </c>
       <c r="DH51" t="n" s="11">
         <v>104.04</v>
       </c>
       <c r="DI51" t="n" s="11">
-        <v>106.47</v>
+        <v>106.46</v>
       </c>
       <c r="DJ51" t="n" s="11">
-        <v>106.66</v>
+        <v>106.67</v>
       </c>
       <c r="DK51" t="n" s="11">
-        <v>106.82</v>
+        <v>106.83</v>
       </c>
       <c r="DL51" t="n" s="11">
-        <v>108.59</v>
+        <v>108.57</v>
       </c>
       <c r="DM51" t="n" s="11">
-        <v>108.98</v>
+        <v>108.99</v>
       </c>
       <c r="DN51" t="n" s="11">
-        <v>109.62</v>
+        <v>109.63</v>
       </c>
       <c r="DO51" t="n" s="11">
-        <v>110.58</v>
+        <v>110.57</v>
       </c>
       <c r="DP51" t="n" s="11">
-        <v>116.43</v>
+        <v>116.42</v>
       </c>
       <c r="DQ51" t="n" s="11">
-        <v>111.15</v>
+        <v>111.17</v>
       </c>
       <c r="DR51" t="n" s="11">
         <v>111.04</v>
       </c>
       <c r="DS51" t="n" s="11">
-        <v>113.7</v>
+        <v>113.53</v>
       </c>
       <c r="DT51" t="n" s="11">
-        <v>111.63</v>
-      </c>
-      <c r="DU51" t="s" s="11">
-        <v>44</v>
+        <v>111.56</v>
+      </c>
+      <c r="DU51" t="n" s="11">
+        <v>113.12</v>
       </c>
       <c r="DV51" t="s" s="11">
         <v>44</v>
@@ -18759,7 +18759,7 @@
         <v>43</v>
       </c>
       <c r="C54" t="n" s="11">
-        <v>9602.0</v>
+        <v>9601.0</v>
       </c>
       <c r="D54" t="n" s="11">
         <v>9720.0</v>
@@ -18768,7 +18768,7 @@
         <v>9977.0</v>
       </c>
       <c r="F54" t="n" s="11">
-        <v>10217.0</v>
+        <v>10216.0</v>
       </c>
       <c r="G54" t="n" s="11">
         <v>10549.0</v>
@@ -18792,7 +18792,7 @@
         <v>10796.0</v>
       </c>
       <c r="N54" t="n" s="11">
-        <v>10819.0</v>
+        <v>10820.0</v>
       </c>
       <c r="O54" t="n" s="11">
         <v>11182.0</v>
@@ -18807,13 +18807,13 @@
         <v>12002.0</v>
       </c>
       <c r="S54" t="n" s="11">
-        <v>11981.0</v>
+        <v>11982.0</v>
       </c>
       <c r="T54" t="n" s="11">
         <v>12171.0</v>
       </c>
       <c r="U54" t="n" s="11">
-        <v>12211.0</v>
+        <v>12210.0</v>
       </c>
       <c r="V54" t="n" s="11">
         <v>12142.0</v>
@@ -18822,52 +18822,52 @@
         <v>12157.0</v>
       </c>
       <c r="X54" t="n" s="11">
-        <v>12257.0</v>
+        <v>12256.0</v>
       </c>
       <c r="Y54" t="n" s="11">
         <v>12379.0</v>
       </c>
       <c r="Z54" t="n" s="11">
-        <v>12513.0</v>
+        <v>12512.0</v>
       </c>
       <c r="AA54" t="n" s="11">
-        <v>12716.0</v>
+        <v>12714.0</v>
       </c>
       <c r="AB54" t="n" s="11">
-        <v>12813.0</v>
+        <v>12814.0</v>
       </c>
       <c r="AC54" t="n" s="11">
-        <v>12979.0</v>
+        <v>12978.0</v>
       </c>
       <c r="AD54" t="n" s="11">
-        <v>13260.0</v>
+        <v>13259.0</v>
       </c>
       <c r="AE54" t="n" s="11">
         <v>13332.0</v>
       </c>
       <c r="AF54" t="n" s="11">
-        <v>13302.0</v>
+        <v>13301.0</v>
       </c>
       <c r="AG54" t="n" s="11">
-        <v>13200.0</v>
+        <v>13201.0</v>
       </c>
       <c r="AH54" t="n" s="11">
-        <v>13018.0</v>
+        <v>13019.0</v>
       </c>
       <c r="AI54" t="n" s="11">
         <v>13060.0</v>
       </c>
       <c r="AJ54" t="n" s="11">
-        <v>13059.0</v>
+        <v>13060.0</v>
       </c>
       <c r="AK54" t="n" s="11">
-        <v>13243.0</v>
+        <v>13244.0</v>
       </c>
       <c r="AL54" t="n" s="11">
-        <v>13374.0</v>
+        <v>13376.0</v>
       </c>
       <c r="AM54" t="n" s="11">
-        <v>13468.0</v>
+        <v>13470.0</v>
       </c>
       <c r="AN54" t="n" s="11">
         <v>13825.0</v>
@@ -18876,46 +18876,46 @@
         <v>13962.0</v>
       </c>
       <c r="AP54" t="n" s="11">
-        <v>14136.0</v>
+        <v>14135.0</v>
       </c>
       <c r="AQ54" t="n" s="11">
         <v>14312.0</v>
       </c>
       <c r="AR54" t="n" s="11">
-        <v>14159.0</v>
+        <v>14158.0</v>
       </c>
       <c r="AS54" t="n" s="11">
-        <v>14062.0</v>
+        <v>14061.0</v>
       </c>
       <c r="AT54" t="n" s="11">
-        <v>14018.0</v>
+        <v>14017.0</v>
       </c>
       <c r="AU54" t="n" s="11">
-        <v>13946.0</v>
+        <v>13945.0</v>
       </c>
       <c r="AV54" t="n" s="11">
         <v>14127.0</v>
       </c>
       <c r="AW54" t="n" s="11">
-        <v>14387.0</v>
+        <v>14386.0</v>
       </c>
       <c r="AX54" t="n" s="11">
-        <v>14442.0</v>
+        <v>14441.0</v>
       </c>
       <c r="AY54" t="n" s="11">
         <v>14668.0</v>
       </c>
       <c r="AZ54" t="n" s="11">
-        <v>14600.0</v>
+        <v>14599.0</v>
       </c>
       <c r="BA54" t="n" s="11">
         <v>14667.0</v>
       </c>
       <c r="BB54" t="n" s="11">
-        <v>15029.0</v>
+        <v>15028.0</v>
       </c>
       <c r="BC54" t="n" s="11">
-        <v>14998.0</v>
+        <v>14999.0</v>
       </c>
       <c r="BD54" t="n" s="11">
         <v>15301.0</v>
@@ -18924,28 +18924,28 @@
         <v>15370.0</v>
       </c>
       <c r="BF54" t="n" s="11">
-        <v>15285.0</v>
+        <v>15287.0</v>
       </c>
       <c r="BG54" t="n" s="11">
-        <v>15520.0</v>
+        <v>15519.0</v>
       </c>
       <c r="BH54" t="n" s="11">
-        <v>15586.0</v>
+        <v>15588.0</v>
       </c>
       <c r="BI54" t="n" s="11">
-        <v>15868.0</v>
+        <v>15869.0</v>
       </c>
       <c r="BJ54" t="n" s="11">
-        <v>16182.0</v>
+        <v>16183.0</v>
       </c>
       <c r="BK54" t="n" s="11">
-        <v>16666.0</v>
+        <v>16668.0</v>
       </c>
       <c r="BL54" t="n" s="11">
-        <v>17116.0</v>
+        <v>17115.0</v>
       </c>
       <c r="BM54" t="n" s="11">
-        <v>17387.0</v>
+        <v>17386.0</v>
       </c>
       <c r="BN54" t="n" s="11">
         <v>17657.0</v>
@@ -18954,31 +18954,31 @@
         <v>17872.0</v>
       </c>
       <c r="BP54" t="n" s="11">
-        <v>17879.0</v>
+        <v>17878.0</v>
       </c>
       <c r="BQ54" t="n" s="11">
-        <v>17999.0</v>
+        <v>17998.0</v>
       </c>
       <c r="BR54" t="n" s="11">
-        <v>18161.0</v>
+        <v>18160.0</v>
       </c>
       <c r="BS54" t="n" s="11">
-        <v>17714.0</v>
+        <v>17713.0</v>
       </c>
       <c r="BT54" t="n" s="11">
-        <v>17515.0</v>
+        <v>17517.0</v>
       </c>
       <c r="BU54" t="n" s="11">
         <v>17131.0</v>
       </c>
       <c r="BV54" t="n" s="11">
-        <v>16099.0</v>
+        <v>16098.0</v>
       </c>
       <c r="BW54" t="n" s="11">
-        <v>14270.0</v>
+        <v>14271.0</v>
       </c>
       <c r="BX54" t="n" s="11">
-        <v>14432.0</v>
+        <v>14431.0</v>
       </c>
       <c r="BY54" t="n" s="11">
         <v>15078.0</v>
@@ -18987,19 +18987,19 @@
         <v>15723.0</v>
       </c>
       <c r="CA54" t="n" s="11">
-        <v>16830.0</v>
+        <v>16831.0</v>
       </c>
       <c r="CB54" t="n" s="11">
-        <v>17459.0</v>
+        <v>17460.0</v>
       </c>
       <c r="CC54" t="n" s="11">
         <v>17743.0</v>
       </c>
       <c r="CD54" t="n" s="11">
-        <v>18256.0</v>
+        <v>18258.0</v>
       </c>
       <c r="CE54" t="n" s="11">
-        <v>18380.0</v>
+        <v>18381.0</v>
       </c>
       <c r="CF54" t="n" s="11">
         <v>18585.0</v>
@@ -19011,121 +19011,121 @@
         <v>18736.0</v>
       </c>
       <c r="CI54" t="n" s="11">
-        <v>18771.0</v>
+        <v>18772.0</v>
       </c>
       <c r="CJ54" t="n" s="11">
         <v>18697.0</v>
       </c>
       <c r="CK54" t="n" s="11">
-        <v>18699.0</v>
+        <v>18698.0</v>
       </c>
       <c r="CL54" t="n" s="11">
-        <v>18645.0</v>
+        <v>18644.0</v>
       </c>
       <c r="CM54" t="n" s="11">
-        <v>18590.0</v>
+        <v>18588.0</v>
       </c>
       <c r="CN54" t="n" s="11">
-        <v>18849.0</v>
+        <v>18850.0</v>
       </c>
       <c r="CO54" t="n" s="11">
         <v>18970.0</v>
       </c>
       <c r="CP54" t="n" s="11">
-        <v>19263.0</v>
+        <v>19262.0</v>
       </c>
       <c r="CQ54" t="n" s="11">
         <v>19677.0</v>
       </c>
       <c r="CR54" t="n" s="11">
-        <v>19660.0</v>
+        <v>19659.0</v>
       </c>
       <c r="CS54" t="n" s="11">
         <v>19940.0</v>
       </c>
       <c r="CT54" t="n" s="11">
-        <v>20222.0</v>
+        <v>20221.0</v>
       </c>
       <c r="CU54" t="n" s="11">
-        <v>20139.0</v>
+        <v>20140.0</v>
       </c>
       <c r="CV54" t="n" s="11">
-        <v>20461.0</v>
+        <v>20460.0</v>
       </c>
       <c r="CW54" t="n" s="11">
         <v>20647.0</v>
       </c>
       <c r="CX54" t="n" s="11">
-        <v>20747.0</v>
+        <v>20748.0</v>
       </c>
       <c r="CY54" t="n" s="11">
-        <v>21305.0</v>
+        <v>21304.0</v>
       </c>
       <c r="CZ54" t="n" s="11">
-        <v>21444.0</v>
+        <v>21446.0</v>
       </c>
       <c r="DA54" t="n" s="11">
-        <v>21429.0</v>
+        <v>21430.0</v>
       </c>
       <c r="DB54" t="n" s="11">
-        <v>21477.0</v>
+        <v>21478.0</v>
       </c>
       <c r="DC54" t="n" s="11">
-        <v>21589.0</v>
+        <v>21590.0</v>
       </c>
       <c r="DD54" t="n" s="11">
-        <v>21754.0</v>
+        <v>21752.0</v>
       </c>
       <c r="DE54" t="n" s="11">
         <v>22206.0</v>
       </c>
       <c r="DF54" t="n" s="11">
-        <v>22410.0</v>
+        <v>22412.0</v>
       </c>
       <c r="DG54" t="n" s="11">
-        <v>22107.0</v>
+        <v>22101.0</v>
       </c>
       <c r="DH54" t="n" s="11">
-        <v>22222.0</v>
+        <v>22218.0</v>
       </c>
       <c r="DI54" t="n" s="11">
-        <v>21769.0</v>
+        <v>21770.0</v>
       </c>
       <c r="DJ54" t="n" s="11">
-        <v>21648.0</v>
+        <v>21657.0</v>
       </c>
       <c r="DK54" t="n" s="11">
-        <v>21809.0</v>
+        <v>21853.0</v>
       </c>
       <c r="DL54" t="n" s="11">
-        <v>21806.0</v>
+        <v>21829.0</v>
       </c>
       <c r="DM54" t="n" s="11">
-        <v>21946.0</v>
+        <v>22011.0</v>
       </c>
       <c r="DN54" t="n" s="11">
-        <v>21479.0</v>
+        <v>21549.0</v>
       </c>
       <c r="DO54" t="n" s="11">
-        <v>21057.0</v>
+        <v>21074.0</v>
       </c>
       <c r="DP54" t="n" s="11">
-        <v>17639.0</v>
+        <v>17635.0</v>
       </c>
       <c r="DQ54" t="n" s="11">
-        <v>20480.0</v>
+        <v>20641.0</v>
       </c>
       <c r="DR54" t="n" s="11">
-        <v>21118.0</v>
+        <v>21197.0</v>
       </c>
       <c r="DS54" t="n" s="11">
-        <v>21612.0</v>
+        <v>21570.0</v>
       </c>
       <c r="DT54" t="n" s="11">
-        <v>21989.0</v>
-      </c>
-      <c r="DU54" t="s" s="11">
-        <v>44</v>
+        <v>21890.0</v>
+      </c>
+      <c r="DU54" t="n" s="11">
+        <v>22050.0</v>
       </c>
       <c r="DV54" t="s" s="11">
         <v>44</v>
@@ -19139,43 +19139,43 @@
         <v>43</v>
       </c>
       <c r="C55" t="n" s="11">
-        <v>25.29</v>
+        <v>24.73</v>
       </c>
       <c r="D55" t="n" s="11">
-        <v>26.06</v>
+        <v>26.26</v>
       </c>
       <c r="E55" t="n" s="11">
-        <v>26.39</v>
+        <v>26.58</v>
       </c>
       <c r="F55" t="n" s="11">
-        <v>26.78</v>
+        <v>26.94</v>
       </c>
       <c r="G55" t="n" s="11">
-        <v>27.35</v>
+        <v>26.84</v>
       </c>
       <c r="H55" t="n" s="11">
-        <v>27.4</v>
+        <v>27.59</v>
       </c>
       <c r="I55" t="n" s="11">
-        <v>27.66</v>
+        <v>27.81</v>
       </c>
       <c r="J55" t="n" s="11">
-        <v>27.77</v>
+        <v>27.86</v>
       </c>
       <c r="K55" t="n" s="11">
-        <v>27.84</v>
+        <v>27.58</v>
       </c>
       <c r="L55" t="n" s="11">
-        <v>28.33</v>
+        <v>28.42</v>
       </c>
       <c r="M55" t="n" s="11">
-        <v>28.71</v>
+        <v>28.76</v>
       </c>
       <c r="N55" t="n" s="11">
         <v>29.01</v>
       </c>
       <c r="O55" t="n" s="11">
-        <v>29.64</v>
+        <v>29.62</v>
       </c>
       <c r="P55" t="n" s="11">
         <v>30.08</v>
@@ -19457,55 +19457,55 @@
         <v>59.52</v>
       </c>
       <c r="DE55" t="n" s="11">
-        <v>60.68</v>
+        <v>60.69</v>
       </c>
       <c r="DF55" t="n" s="11">
-        <v>61.34</v>
+        <v>61.35</v>
       </c>
       <c r="DG55" t="n" s="11">
-        <v>60.82</v>
+        <v>60.81</v>
       </c>
       <c r="DH55" t="n" s="11">
-        <v>60.59</v>
+        <v>60.58</v>
       </c>
       <c r="DI55" t="n" s="11">
-        <v>59.74</v>
+        <v>59.75</v>
       </c>
       <c r="DJ55" t="n" s="11">
-        <v>59.26</v>
+        <v>59.3</v>
       </c>
       <c r="DK55" t="n" s="11">
-        <v>59.7</v>
+        <v>59.84</v>
       </c>
       <c r="DL55" t="n" s="11">
-        <v>60.1</v>
+        <v>60.11</v>
       </c>
       <c r="DM55" t="n" s="11">
-        <v>60.17</v>
+        <v>60.37</v>
       </c>
       <c r="DN55" t="n" s="11">
-        <v>59.7</v>
+        <v>59.93</v>
       </c>
       <c r="DO55" t="n" s="11">
-        <v>58.87</v>
+        <v>58.98</v>
       </c>
       <c r="DP55" t="n" s="11">
-        <v>53.62</v>
+        <v>53.45</v>
       </c>
       <c r="DQ55" t="n" s="11">
-        <v>58.71</v>
+        <v>59.17</v>
       </c>
       <c r="DR55" t="n" s="11">
-        <v>60.06</v>
+        <v>60.33</v>
       </c>
       <c r="DS55" t="n" s="11">
-        <v>61.45</v>
+        <v>61.47</v>
       </c>
       <c r="DT55" t="n" s="11">
-        <v>61.61</v>
-      </c>
-      <c r="DU55" t="s" s="11">
-        <v>44</v>
+        <v>61.31</v>
+      </c>
+      <c r="DU55" t="n" s="11">
+        <v>61.08</v>
       </c>
       <c r="DV55" t="s" s="11">
         <v>44</v>
@@ -19519,7 +19519,7 @@
         <v>47</v>
       </c>
       <c r="C56" t="n" s="11">
-        <v>57.1</v>
+        <v>57.09</v>
       </c>
       <c r="D56" t="n" s="11">
         <v>57.76</v>
@@ -19528,7 +19528,7 @@
         <v>58.59</v>
       </c>
       <c r="F56" t="n" s="11">
-        <v>60.03</v>
+        <v>60.02</v>
       </c>
       <c r="G56" t="n" s="11">
         <v>60.76</v>
@@ -19573,10 +19573,10 @@
         <v>66.98</v>
       </c>
       <c r="U56" t="n" s="11">
-        <v>66.78</v>
+        <v>66.77</v>
       </c>
       <c r="V56" t="n" s="11">
-        <v>66.41</v>
+        <v>66.4</v>
       </c>
       <c r="W56" t="n" s="11">
         <v>65.86</v>
@@ -19591,13 +19591,13 @@
         <v>67.48</v>
       </c>
       <c r="AA56" t="n" s="11">
-        <v>69.29</v>
+        <v>69.28</v>
       </c>
       <c r="AB56" t="n" s="11">
         <v>70.18</v>
       </c>
       <c r="AC56" t="n" s="11">
-        <v>70.91</v>
+        <v>70.9</v>
       </c>
       <c r="AD56" t="n" s="11">
         <v>72.31</v>
@@ -19606,7 +19606,7 @@
         <v>71.42</v>
       </c>
       <c r="AF56" t="n" s="11">
-        <v>70.75</v>
+        <v>70.74</v>
       </c>
       <c r="AG56" t="n" s="11">
         <v>70.29</v>
@@ -19624,7 +19624,7 @@
         <v>71.36</v>
       </c>
       <c r="AL56" t="n" s="11">
-        <v>72.14</v>
+        <v>72.15</v>
       </c>
       <c r="AM56" t="n" s="11">
         <v>73.69</v>
@@ -19636,7 +19636,7 @@
         <v>76.32</v>
       </c>
       <c r="AP56" t="n" s="11">
-        <v>77.19</v>
+        <v>77.18</v>
       </c>
       <c r="AQ56" t="n" s="11">
         <v>77.85</v>
@@ -19645,7 +19645,7 @@
         <v>76.83</v>
       </c>
       <c r="AS56" t="n" s="11">
-        <v>76.45</v>
+        <v>76.44</v>
       </c>
       <c r="AT56" t="n" s="11">
         <v>76.15</v>
@@ -19681,16 +19681,16 @@
         <v>83.13</v>
       </c>
       <c r="BE56" t="n" s="11">
-        <v>83.38</v>
+        <v>83.39</v>
       </c>
       <c r="BF56" t="n" s="11">
-        <v>82.56</v>
+        <v>82.57</v>
       </c>
       <c r="BG56" t="n" s="11">
-        <v>84.11</v>
+        <v>84.1</v>
       </c>
       <c r="BH56" t="n" s="11">
-        <v>84.69</v>
+        <v>84.7</v>
       </c>
       <c r="BI56" t="n" s="11">
         <v>86.36</v>
@@ -19699,10 +19699,10 @@
         <v>88.38</v>
       </c>
       <c r="BK56" t="n" s="11">
-        <v>91.52</v>
+        <v>91.53</v>
       </c>
       <c r="BL56" t="n" s="11">
-        <v>94.17</v>
+        <v>94.16</v>
       </c>
       <c r="BM56" t="n" s="11">
         <v>95.79</v>
@@ -19711,7 +19711,7 @@
         <v>97.45</v>
       </c>
       <c r="BO56" t="n" s="11">
-        <v>97.35</v>
+        <v>97.36</v>
       </c>
       <c r="BP56" t="n" s="11">
         <v>96.95</v>
@@ -19720,19 +19720,19 @@
         <v>97.54</v>
       </c>
       <c r="BR56" t="n" s="11">
-        <v>98.53</v>
+        <v>98.52</v>
       </c>
       <c r="BS56" t="n" s="11">
         <v>96.37</v>
       </c>
       <c r="BT56" t="n" s="11">
-        <v>94.9</v>
+        <v>94.91</v>
       </c>
       <c r="BU56" t="n" s="11">
         <v>92.4</v>
       </c>
       <c r="BV56" t="n" s="11">
-        <v>88.03</v>
+        <v>88.02</v>
       </c>
       <c r="BW56" t="n" s="11">
         <v>73.83</v>
@@ -19744,7 +19744,7 @@
         <v>77.84</v>
       </c>
       <c r="BZ56" t="n" s="11">
-        <v>81.09</v>
+        <v>81.1</v>
       </c>
       <c r="CA56" t="n" s="11">
         <v>87.79</v>
@@ -19756,7 +19756,7 @@
         <v>93.72</v>
       </c>
       <c r="CD56" t="n" s="11">
-        <v>96.55</v>
+        <v>96.57</v>
       </c>
       <c r="CE56" t="n" s="11">
         <v>97.86</v>
@@ -19765,25 +19765,25 @@
         <v>98.42</v>
       </c>
       <c r="CG56" t="n" s="11">
-        <v>99.01</v>
+        <v>99.02</v>
       </c>
       <c r="CH56" t="n" s="11">
         <v>98.3</v>
       </c>
       <c r="CI56" t="n" s="11">
-        <v>96.56</v>
+        <v>96.57</v>
       </c>
       <c r="CJ56" t="n" s="11">
         <v>95.94</v>
       </c>
       <c r="CK56" t="n" s="11">
-        <v>95.49</v>
+        <v>95.48</v>
       </c>
       <c r="CL56" t="n" s="11">
         <v>94.57</v>
       </c>
       <c r="CM56" t="n" s="11">
-        <v>94.15</v>
+        <v>94.14</v>
       </c>
       <c r="CN56" t="n" s="11">
         <v>95.19</v>
@@ -19798,7 +19798,7 @@
         <v>99.46</v>
       </c>
       <c r="CR56" t="n" s="11">
-        <v>98.96</v>
+        <v>98.95</v>
       </c>
       <c r="CS56" t="n" s="11">
         <v>99.76</v>
@@ -19816,13 +19816,13 @@
         <v>100.46</v>
       </c>
       <c r="CX56" t="n" s="11">
-        <v>100.67</v>
+        <v>100.68</v>
       </c>
       <c r="CY56" t="n" s="11">
-        <v>102.66</v>
+        <v>102.65</v>
       </c>
       <c r="CZ56" t="n" s="11">
-        <v>103.48</v>
+        <v>103.49</v>
       </c>
       <c r="DA56" t="n" s="11">
         <v>103.37</v>
@@ -19831,61 +19831,61 @@
         <v>103.41</v>
       </c>
       <c r="DC56" t="n" s="11">
-        <v>104.83</v>
+        <v>104.86</v>
       </c>
       <c r="DD56" t="n" s="11">
-        <v>105.44</v>
+        <v>105.45</v>
       </c>
       <c r="DE56" t="n" s="11">
-        <v>107.75</v>
+        <v>107.73</v>
       </c>
       <c r="DF56" t="n" s="11">
-        <v>109.09</v>
+        <v>109.0</v>
       </c>
       <c r="DG56" t="n" s="11">
-        <v>107.32</v>
+        <v>107.43</v>
       </c>
       <c r="DH56" t="n" s="11">
-        <v>107.66</v>
+        <v>107.7</v>
       </c>
       <c r="DI56" t="n" s="11">
-        <v>105.62</v>
+        <v>105.57</v>
       </c>
       <c r="DJ56" t="n" s="11">
-        <v>104.85</v>
+        <v>104.69</v>
       </c>
       <c r="DK56" t="n" s="11">
-        <v>105.93</v>
+        <v>105.12</v>
       </c>
       <c r="DL56" t="n" s="11">
-        <v>105.42</v>
+        <v>104.26</v>
       </c>
       <c r="DM56" t="n" s="11">
-        <v>105.45</v>
+        <v>104.46</v>
       </c>
       <c r="DN56" t="n" s="11">
-        <v>102.42</v>
+        <v>101.42</v>
       </c>
       <c r="DO56" t="n" s="11">
-        <v>100.38</v>
+        <v>99.5</v>
       </c>
       <c r="DP56" t="n" s="11">
-        <v>84.12</v>
+        <v>82.92</v>
       </c>
       <c r="DQ56" t="n" s="11">
-        <v>97.9</v>
+        <v>97.54</v>
       </c>
       <c r="DR56" t="n" s="11">
-        <v>101.45</v>
+        <v>100.58</v>
       </c>
       <c r="DS56" t="n" s="11">
-        <v>102.19</v>
+        <v>100.97</v>
       </c>
       <c r="DT56" t="n" s="11">
-        <v>103.4</v>
-      </c>
-      <c r="DU56" t="s" s="11">
-        <v>44</v>
+        <v>101.79</v>
+      </c>
+      <c r="DU56" t="n" s="11">
+        <v>101.36</v>
       </c>
       <c r="DV56" t="s" s="11">
         <v>44</v>
@@ -19899,46 +19899,46 @@
         <v>47</v>
       </c>
       <c r="C57" t="n" s="11">
-        <v>55.68</v>
+        <v>54.45</v>
       </c>
       <c r="D57" t="n" s="11">
-        <v>57.12</v>
+        <v>57.56</v>
       </c>
       <c r="E57" t="n" s="11">
-        <v>57.2</v>
+        <v>57.62</v>
       </c>
       <c r="F57" t="n" s="11">
-        <v>58.2</v>
+        <v>58.57</v>
       </c>
       <c r="G57" t="n" s="11">
-        <v>58.09</v>
+        <v>57.02</v>
       </c>
       <c r="H57" t="n" s="11">
-        <v>57.68</v>
+        <v>58.08</v>
       </c>
       <c r="I57" t="n" s="11">
-        <v>57.86</v>
+        <v>58.17</v>
       </c>
       <c r="J57" t="n" s="11">
-        <v>57.44</v>
+        <v>57.63</v>
       </c>
       <c r="K57" t="n" s="11">
-        <v>57.65</v>
+        <v>57.11</v>
       </c>
       <c r="L57" t="n" s="11">
-        <v>58.48</v>
+        <v>58.66</v>
       </c>
       <c r="M57" t="n" s="11">
-        <v>59.36</v>
+        <v>59.45</v>
       </c>
       <c r="N57" t="n" s="11">
         <v>60.11</v>
       </c>
       <c r="O57" t="n" s="11">
-        <v>61.96</v>
+        <v>61.91</v>
       </c>
       <c r="P57" t="n" s="11">
-        <v>62.97</v>
+        <v>62.98</v>
       </c>
       <c r="Q57" t="n" s="11">
         <v>63.94</v>
@@ -20208,64 +20208,64 @@
         <v>104.04</v>
       </c>
       <c r="DB57" t="n" s="11">
-        <v>104.51</v>
+        <v>104.5</v>
       </c>
       <c r="DC57" t="n" s="11">
-        <v>105.22</v>
+        <v>105.24</v>
       </c>
       <c r="DD57" t="n" s="11">
-        <v>106.43</v>
+        <v>106.44</v>
       </c>
       <c r="DE57" t="n" s="11">
-        <v>108.65</v>
+        <v>108.63</v>
       </c>
       <c r="DF57" t="n" s="11">
-        <v>110.16</v>
+        <v>110.07</v>
       </c>
       <c r="DG57" t="n" s="11">
-        <v>108.93</v>
+        <v>109.05</v>
       </c>
       <c r="DH57" t="n" s="11">
-        <v>108.32</v>
+        <v>108.35</v>
       </c>
       <c r="DI57" t="n" s="11">
-        <v>106.94</v>
+        <v>106.89</v>
       </c>
       <c r="DJ57" t="n" s="11">
-        <v>105.91</v>
+        <v>105.77</v>
       </c>
       <c r="DK57" t="n" s="11">
-        <v>106.99</v>
+        <v>106.19</v>
       </c>
       <c r="DL57" t="n" s="11">
-        <v>107.19</v>
+        <v>105.92</v>
       </c>
       <c r="DM57" t="n" s="11">
-        <v>106.71</v>
+        <v>105.73</v>
       </c>
       <c r="DN57" t="n" s="11">
-        <v>105.02</v>
+        <v>104.05</v>
       </c>
       <c r="DO57" t="n" s="11">
-        <v>103.61</v>
+        <v>102.78</v>
       </c>
       <c r="DP57" t="n" s="11">
-        <v>94.33</v>
+        <v>92.7</v>
       </c>
       <c r="DQ57" t="n" s="11">
-        <v>103.58</v>
+        <v>103.2</v>
       </c>
       <c r="DR57" t="n" s="11">
-        <v>106.53</v>
+        <v>105.69</v>
       </c>
       <c r="DS57" t="n" s="11">
-        <v>107.2</v>
+        <v>106.17</v>
       </c>
       <c r="DT57" t="n" s="11">
-        <v>106.9</v>
-      </c>
-      <c r="DU57" t="s" s="11">
-        <v>44</v>
+        <v>105.23</v>
+      </c>
+      <c r="DU57" t="n" s="11">
+        <v>103.64</v>
       </c>
       <c r="DV57" t="s" s="11">
         <v>44</v>
@@ -20279,55 +20279,55 @@
         <v>43</v>
       </c>
       <c r="C58" t="n" s="11">
-        <v>6349.0</v>
+        <v>6348.0</v>
       </c>
       <c r="D58" t="n" s="11">
-        <v>6662.0</v>
+        <v>6652.0</v>
       </c>
       <c r="E58" t="n" s="11">
-        <v>6822.0</v>
+        <v>6809.0</v>
       </c>
       <c r="F58" t="n" s="11">
-        <v>7024.0</v>
+        <v>7049.0</v>
       </c>
       <c r="G58" t="n" s="11">
-        <v>7296.0</v>
+        <v>7300.0</v>
       </c>
       <c r="H58" t="n" s="11">
-        <v>7538.0</v>
+        <v>7523.0</v>
       </c>
       <c r="I58" t="n" s="11">
-        <v>7740.0</v>
+        <v>7723.0</v>
       </c>
       <c r="J58" t="n" s="11">
-        <v>7844.0</v>
+        <v>7872.0</v>
       </c>
       <c r="K58" t="n" s="11">
-        <v>7626.0</v>
+        <v>7634.0</v>
       </c>
       <c r="L58" t="n" s="11">
-        <v>7863.0</v>
+        <v>7846.0</v>
       </c>
       <c r="M58" t="n" s="11">
-        <v>7980.0</v>
+        <v>7967.0</v>
       </c>
       <c r="N58" t="n" s="11">
-        <v>8085.0</v>
+        <v>8101.0</v>
       </c>
       <c r="O58" t="n" s="11">
-        <v>8187.0</v>
+        <v>8193.0</v>
       </c>
       <c r="P58" t="n" s="11">
-        <v>8279.0</v>
+        <v>8271.0</v>
       </c>
       <c r="Q58" t="n" s="11">
-        <v>8373.0</v>
+        <v>8370.0</v>
       </c>
       <c r="R58" t="n" s="11">
-        <v>8473.0</v>
+        <v>8474.0</v>
       </c>
       <c r="S58" t="n" s="11">
-        <v>8602.0</v>
+        <v>8603.0</v>
       </c>
       <c r="T58" t="n" s="11">
         <v>8748.0</v>
@@ -20606,46 +20606,46 @@
         <v>14110.0</v>
       </c>
       <c r="DH58" t="n" s="11">
-        <v>14273.0</v>
+        <v>14274.0</v>
       </c>
       <c r="DI58" t="n" s="11">
         <v>14201.0</v>
       </c>
       <c r="DJ58" t="n" s="11">
-        <v>14360.0</v>
+        <v>14357.0</v>
       </c>
       <c r="DK58" t="n" s="11">
-        <v>14461.0</v>
+        <v>14456.0</v>
       </c>
       <c r="DL58" t="n" s="11">
-        <v>14596.0</v>
+        <v>14614.0</v>
       </c>
       <c r="DM58" t="n" s="11">
-        <v>14720.0</v>
+        <v>14712.0</v>
       </c>
       <c r="DN58" t="n" s="11">
-        <v>14522.0</v>
+        <v>14513.0</v>
       </c>
       <c r="DO58" t="n" s="11">
-        <v>14478.0</v>
+        <v>14466.0</v>
       </c>
       <c r="DP58" t="n" s="11">
-        <v>13666.0</v>
+        <v>13722.0</v>
       </c>
       <c r="DQ58" t="n" s="11">
-        <v>14312.0</v>
+        <v>14298.0</v>
       </c>
       <c r="DR58" t="n" s="11">
-        <v>14465.0</v>
+        <v>14448.0</v>
       </c>
       <c r="DS58" t="n" s="11">
-        <v>14494.0</v>
+        <v>14483.0</v>
       </c>
       <c r="DT58" t="n" s="11">
-        <v>14443.0</v>
-      </c>
-      <c r="DU58" t="s" s="11">
-        <v>44</v>
+        <v>14582.0</v>
+      </c>
+      <c r="DU58" t="n" s="11">
+        <v>14792.0</v>
       </c>
       <c r="DV58" t="s" s="11">
         <v>44</v>
@@ -20659,46 +20659,46 @@
         <v>43</v>
       </c>
       <c r="C59" t="n" s="11">
-        <v>17.36</v>
+        <v>16.96</v>
       </c>
       <c r="D59" t="n" s="11">
-        <v>18.1</v>
+        <v>18.22</v>
       </c>
       <c r="E59" t="n" s="11">
-        <v>18.37</v>
+        <v>18.48</v>
       </c>
       <c r="F59" t="n" s="11">
-        <v>19.01</v>
+        <v>19.2</v>
       </c>
       <c r="G59" t="n" s="11">
-        <v>19.11</v>
+        <v>18.74</v>
       </c>
       <c r="H59" t="n" s="11">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="I59" t="n" s="11">
-        <v>20.32</v>
+        <v>20.39</v>
       </c>
       <c r="J59" t="n" s="11">
-        <v>20.61</v>
+        <v>20.75</v>
       </c>
       <c r="K59" t="n" s="11">
-        <v>20.58</v>
+        <v>20.4</v>
       </c>
       <c r="L59" t="n" s="11">
-        <v>21.22</v>
+        <v>21.25</v>
       </c>
       <c r="M59" t="n" s="11">
         <v>21.53</v>
       </c>
       <c r="N59" t="n" s="11">
-        <v>21.71</v>
+        <v>21.76</v>
       </c>
       <c r="O59" t="n" s="11">
-        <v>22.03</v>
+        <v>22.02</v>
       </c>
       <c r="P59" t="n" s="11">
-        <v>22.13</v>
+        <v>22.11</v>
       </c>
       <c r="Q59" t="n" s="11">
         <v>22.43</v>
@@ -20992,40 +20992,40 @@
         <v>39.73</v>
       </c>
       <c r="DJ59" t="n" s="11">
-        <v>39.89</v>
+        <v>39.9</v>
       </c>
       <c r="DK59" t="n" s="11">
         <v>40.32</v>
       </c>
       <c r="DL59" t="n" s="11">
-        <v>41.04</v>
+        <v>41.03</v>
       </c>
       <c r="DM59" t="n" s="11">
         <v>40.81</v>
       </c>
       <c r="DN59" t="n" s="11">
-        <v>41.06</v>
+        <v>41.07</v>
       </c>
       <c r="DO59" t="n" s="11">
         <v>40.78</v>
       </c>
       <c r="DP59" t="n" s="11">
-        <v>42.26</v>
+        <v>42.24</v>
       </c>
       <c r="DQ59" t="n" s="11">
-        <v>41.41</v>
+        <v>41.37</v>
       </c>
       <c r="DR59" t="n" s="11">
-        <v>41.14</v>
+        <v>41.16</v>
       </c>
       <c r="DS59" t="n" s="11">
-        <v>41.82</v>
+        <v>41.85</v>
       </c>
       <c r="DT59" t="n" s="11">
-        <v>40.91</v>
-      </c>
-      <c r="DU59" t="s" s="11">
-        <v>44</v>
+        <v>41.23</v>
+      </c>
+      <c r="DU59" t="n" s="11">
+        <v>41.37</v>
       </c>
       <c r="DV59" t="s" s="11">
         <v>44</v>
@@ -21366,46 +21366,46 @@
         <v>11775.0</v>
       </c>
       <c r="DH60" t="n" s="11">
-        <v>11914.0</v>
+        <v>11915.0</v>
       </c>
       <c r="DI60" t="n" s="11">
         <v>11842.0</v>
       </c>
       <c r="DJ60" t="n" s="11">
-        <v>11969.0</v>
+        <v>11967.0</v>
       </c>
       <c r="DK60" t="n" s="11">
-        <v>11979.0</v>
+        <v>11975.0</v>
       </c>
       <c r="DL60" t="n" s="11">
-        <v>12092.0</v>
+        <v>12107.0</v>
       </c>
       <c r="DM60" t="n" s="11">
-        <v>12192.0</v>
+        <v>12185.0</v>
       </c>
       <c r="DN60" t="n" s="11">
-        <v>11985.0</v>
+        <v>11976.0</v>
       </c>
       <c r="DO60" t="n" s="11">
-        <v>11944.0</v>
+        <v>11931.0</v>
       </c>
       <c r="DP60" t="n" s="11">
-        <v>11078.0</v>
+        <v>11129.0</v>
       </c>
       <c r="DQ60" t="n" s="11">
-        <v>11724.0</v>
+        <v>11714.0</v>
       </c>
       <c r="DR60" t="n" s="11">
-        <v>11865.0</v>
+        <v>11850.0</v>
       </c>
       <c r="DS60" t="n" s="11">
-        <v>11895.0</v>
+        <v>11879.0</v>
       </c>
       <c r="DT60" t="n" s="11">
-        <v>11860.0</v>
-      </c>
-      <c r="DU60" t="s" s="11">
-        <v>44</v>
+        <v>11978.0</v>
+      </c>
+      <c r="DU60" t="n" s="11">
+        <v>12172.0</v>
       </c>
       <c r="DV60" t="s" s="11">
         <v>44</v>
@@ -21419,46 +21419,46 @@
         <v>43</v>
       </c>
       <c r="C61" t="n" s="11">
-        <v>14.44</v>
+        <v>14.11</v>
       </c>
       <c r="D61" t="n" s="11">
-        <v>14.9</v>
+        <v>15.02</v>
       </c>
       <c r="E61" t="n" s="11">
-        <v>15.12</v>
+        <v>15.23</v>
       </c>
       <c r="F61" t="n" s="11">
-        <v>15.67</v>
+        <v>15.77</v>
       </c>
       <c r="G61" t="n" s="11">
-        <v>15.89</v>
+        <v>15.58</v>
       </c>
       <c r="H61" t="n" s="11">
-        <v>16.34</v>
+        <v>16.46</v>
       </c>
       <c r="I61" t="n" s="11">
-        <v>16.74</v>
+        <v>16.84</v>
       </c>
       <c r="J61" t="n" s="11">
-        <v>16.94</v>
+        <v>17.0</v>
       </c>
       <c r="K61" t="n" s="11">
-        <v>17.3</v>
+        <v>17.13</v>
       </c>
       <c r="L61" t="n" s="11">
-        <v>17.56</v>
+        <v>17.62</v>
       </c>
       <c r="M61" t="n" s="11">
-        <v>17.83</v>
+        <v>17.86</v>
       </c>
       <c r="N61" t="n" s="11">
         <v>17.96</v>
       </c>
       <c r="O61" t="n" s="11">
-        <v>18.21</v>
+        <v>18.2</v>
       </c>
       <c r="P61" t="n" s="11">
-        <v>18.11</v>
+        <v>18.12</v>
       </c>
       <c r="Q61" t="n" s="11">
         <v>18.37</v>
@@ -21767,25 +21767,25 @@
         <v>33.89</v>
       </c>
       <c r="DO61" t="n" s="11">
-        <v>33.64</v>
+        <v>33.63</v>
       </c>
       <c r="DP61" t="n" s="11">
         <v>34.26</v>
       </c>
       <c r="DQ61" t="n" s="11">
-        <v>33.92</v>
+        <v>33.89</v>
       </c>
       <c r="DR61" t="n" s="11">
-        <v>33.74</v>
+        <v>33.75</v>
       </c>
       <c r="DS61" t="n" s="11">
         <v>34.32</v>
       </c>
       <c r="DT61" t="n" s="11">
-        <v>33.59</v>
-      </c>
-      <c r="DU61" t="s" s="11">
-        <v>44</v>
+        <v>33.87</v>
+      </c>
+      <c r="DU61" t="n" s="11">
+        <v>34.04</v>
       </c>
       <c r="DV61" t="s" s="11">
         <v>44</v>
@@ -21799,64 +21799,64 @@
         <v>47</v>
       </c>
       <c r="C62" t="n" s="11">
-        <v>82.99</v>
+        <v>83.01</v>
       </c>
       <c r="D62" t="n" s="11">
-        <v>86.11</v>
+        <v>85.96</v>
       </c>
       <c r="E62" t="n" s="11">
-        <v>86.94</v>
+        <v>86.77</v>
       </c>
       <c r="F62" t="n" s="11">
-        <v>87.34</v>
+        <v>87.67</v>
       </c>
       <c r="G62" t="n" s="11">
-        <v>89.63</v>
+        <v>89.66</v>
       </c>
       <c r="H62" t="n" s="11">
-        <v>92.37</v>
+        <v>92.19</v>
       </c>
       <c r="I62" t="n" s="11">
-        <v>95.28</v>
+        <v>95.07</v>
       </c>
       <c r="J62" t="n" s="11">
-        <v>97.7</v>
+        <v>98.05</v>
       </c>
       <c r="K62" t="n" s="11">
-        <v>96.07</v>
+        <v>96.17</v>
       </c>
       <c r="L62" t="n" s="11">
-        <v>98.72</v>
+        <v>98.5</v>
       </c>
       <c r="M62" t="n" s="11">
-        <v>98.48</v>
+        <v>98.33</v>
       </c>
       <c r="N62" t="n" s="11">
-        <v>99.16</v>
+        <v>99.38</v>
       </c>
       <c r="O62" t="n" s="11">
-        <v>96.45</v>
+        <v>96.51</v>
       </c>
       <c r="P62" t="n" s="11">
-        <v>95.53</v>
+        <v>95.46</v>
       </c>
       <c r="Q62" t="n" s="11">
-        <v>95.29</v>
+        <v>95.26</v>
       </c>
       <c r="R62" t="n" s="11">
-        <v>94.02</v>
+        <v>94.04</v>
       </c>
       <c r="S62" t="n" s="11">
-        <v>96.18</v>
+        <v>96.2</v>
       </c>
       <c r="T62" t="n" s="11">
         <v>97.51</v>
       </c>
       <c r="U62" t="n" s="11">
-        <v>98.23</v>
+        <v>98.25</v>
       </c>
       <c r="V62" t="n" s="11">
-        <v>99.91</v>
+        <v>99.92</v>
       </c>
       <c r="W62" t="n" s="11">
         <v>100.93</v>
@@ -21871,13 +21871,13 @@
         <v>99.69</v>
       </c>
       <c r="AA62" t="n" s="11">
-        <v>97.86</v>
+        <v>97.88</v>
       </c>
       <c r="AB62" t="n" s="11">
         <v>96.79</v>
       </c>
       <c r="AC62" t="n" s="11">
-        <v>96.11</v>
+        <v>96.12</v>
       </c>
       <c r="AD62" t="n" s="11">
         <v>94.59</v>
@@ -21886,7 +21886,7 @@
         <v>96.14</v>
       </c>
       <c r="AF62" t="n" s="11">
-        <v>97.68</v>
+        <v>97.7</v>
       </c>
       <c r="AG62" t="n" s="11">
         <v>98.98</v>
@@ -21904,7 +21904,7 @@
         <v>100.63</v>
       </c>
       <c r="AL62" t="n" s="11">
-        <v>100.1</v>
+        <v>100.08</v>
       </c>
       <c r="AM62" t="n" s="11">
         <v>99.13</v>
@@ -21916,7 +21916,7 @@
         <v>97.0</v>
       </c>
       <c r="AP62" t="n" s="11">
-        <v>96.46</v>
+        <v>96.48</v>
       </c>
       <c r="AQ62" t="n" s="11">
         <v>96.22</v>
@@ -21925,7 +21925,7 @@
         <v>97.46</v>
       </c>
       <c r="AS62" t="n" s="11">
-        <v>97.87</v>
+        <v>97.88</v>
       </c>
       <c r="AT62" t="n" s="11">
         <v>98.8</v>
@@ -21961,16 +21961,16 @@
         <v>95.07</v>
       </c>
       <c r="BE62" t="n" s="11">
-        <v>94.95</v>
+        <v>94.94</v>
       </c>
       <c r="BF62" t="n" s="11">
-        <v>96.49</v>
+        <v>96.48</v>
       </c>
       <c r="BG62" t="n" s="11">
-        <v>94.79</v>
+        <v>94.8</v>
       </c>
       <c r="BH62" t="n" s="11">
-        <v>94.39</v>
+        <v>94.38</v>
       </c>
       <c r="BI62" t="n" s="11">
         <v>92.94</v>
@@ -21979,10 +21979,10 @@
         <v>91.65</v>
       </c>
       <c r="BK62" t="n" s="11">
-        <v>90.2</v>
+        <v>90.19</v>
       </c>
       <c r="BL62" t="n" s="11">
-        <v>87.7</v>
+        <v>87.71</v>
       </c>
       <c r="BM62" t="n" s="11">
         <v>87.27</v>
@@ -22000,19 +22000,19 @@
         <v>86.59</v>
       </c>
       <c r="BR62" t="n" s="11">
-        <v>86.95</v>
+        <v>86.96</v>
       </c>
       <c r="BS62" t="n" s="11">
         <v>88.69</v>
       </c>
       <c r="BT62" t="n" s="11">
-        <v>90.58</v>
+        <v>90.57</v>
       </c>
       <c r="BU62" t="n" s="11">
         <v>92.49</v>
       </c>
       <c r="BV62" t="n" s="11">
-        <v>98.46</v>
+        <v>98.47</v>
       </c>
       <c r="BW62" t="n" s="11">
         <v>112.77</v>
@@ -22024,7 +22024,7 @@
         <v>107.13</v>
       </c>
       <c r="BZ62" t="n" s="11">
-        <v>103.86</v>
+        <v>103.85</v>
       </c>
       <c r="CA62" t="n" s="11">
         <v>97.98</v>
@@ -22036,7 +22036,7 @@
         <v>93.81</v>
       </c>
       <c r="CD62" t="n" s="11">
-        <v>92.45</v>
+        <v>92.43</v>
       </c>
       <c r="CE62" t="n" s="11">
         <v>91.79</v>
@@ -22045,25 +22045,25 @@
         <v>91.51</v>
       </c>
       <c r="CG62" t="n" s="11">
-        <v>91.13</v>
+        <v>91.12</v>
       </c>
       <c r="CH62" t="n" s="11">
         <v>92.1</v>
       </c>
       <c r="CI62" t="n" s="11">
-        <v>93.87</v>
+        <v>93.86</v>
       </c>
       <c r="CJ62" t="n" s="11">
         <v>95.45</v>
       </c>
       <c r="CK62" t="n" s="11">
-        <v>95.93</v>
+        <v>95.94</v>
       </c>
       <c r="CL62" t="n" s="11">
         <v>97.73</v>
       </c>
       <c r="CM62" t="n" s="11">
-        <v>99.21</v>
+        <v>99.22</v>
       </c>
       <c r="CN62" t="n" s="11">
         <v>98.92</v>
@@ -22078,7 +22078,7 @@
         <v>97.15</v>
       </c>
       <c r="CR62" t="n" s="11">
-        <v>98.11</v>
+        <v>98.12</v>
       </c>
       <c r="CS62" t="n" s="11">
         <v>97.89</v>
@@ -22096,13 +22096,13 @@
         <v>99.77</v>
       </c>
       <c r="CX62" t="n" s="11">
-        <v>99.97</v>
+        <v>99.96</v>
       </c>
       <c r="CY62" t="n" s="11">
-        <v>98.71</v>
+        <v>98.72</v>
       </c>
       <c r="CZ62" t="n" s="11">
-        <v>98.25</v>
+        <v>98.24</v>
       </c>
       <c r="DA62" t="n" s="11">
         <v>99.29</v>
@@ -22111,61 +22111,61 @@
         <v>99.7</v>
       </c>
       <c r="DC62" t="n" s="11">
-        <v>98.82</v>
+        <v>98.79</v>
       </c>
       <c r="DD62" t="n" s="11">
-        <v>98.32</v>
+        <v>98.31</v>
       </c>
       <c r="DE62" t="n" s="11">
-        <v>96.82</v>
+        <v>96.83</v>
       </c>
       <c r="DF62" t="n" s="11">
-        <v>96.31</v>
+        <v>96.39</v>
       </c>
       <c r="DG62" t="n" s="11">
-        <v>98.14</v>
+        <v>98.04</v>
       </c>
       <c r="DH62" t="n" s="11">
-        <v>98.97</v>
+        <v>98.94</v>
       </c>
       <c r="DI62" t="n" s="11">
-        <v>100.37</v>
+        <v>100.42</v>
       </c>
       <c r="DJ62" t="n" s="11">
-        <v>102.23</v>
+        <v>102.37</v>
       </c>
       <c r="DK62" t="n" s="11">
-        <v>101.91</v>
+        <v>102.66</v>
       </c>
       <c r="DL62" t="n" s="11">
-        <v>103.36</v>
+        <v>104.62</v>
       </c>
       <c r="DM62" t="n" s="11">
-        <v>104.21</v>
+        <v>105.15</v>
       </c>
       <c r="DN62" t="n" s="11">
-        <v>105.84</v>
+        <v>106.82</v>
       </c>
       <c r="DO62" t="n" s="11">
-        <v>107.68</v>
+        <v>108.53</v>
       </c>
       <c r="DP62" t="n" s="11">
-        <v>121.27</v>
+        <v>123.54</v>
       </c>
       <c r="DQ62" t="n" s="11">
-        <v>109.14</v>
+        <v>109.43</v>
       </c>
       <c r="DR62" t="n" s="11">
-        <v>106.45</v>
+        <v>107.22</v>
       </c>
       <c r="DS62" t="n" s="11">
-        <v>105.87</v>
+        <v>107.09</v>
       </c>
       <c r="DT62" t="n" s="11">
-        <v>104.26</v>
-      </c>
-      <c r="DU62" t="s" s="11">
-        <v>44</v>
+        <v>106.94</v>
+      </c>
+      <c r="DU62" t="n" s="11">
+        <v>108.94</v>
       </c>
       <c r="DV62" t="s" s="11">
         <v>44</v>
@@ -22179,55 +22179,55 @@
         <v>47</v>
       </c>
       <c r="C63" t="n" s="11">
-        <v>84.57</v>
+        <v>84.5</v>
       </c>
       <c r="D63" t="n" s="11">
-        <v>85.96</v>
+        <v>85.86</v>
       </c>
       <c r="E63" t="n" s="11">
-        <v>87.12</v>
+        <v>86.98</v>
       </c>
       <c r="F63" t="n" s="11">
-        <v>88.59</v>
+        <v>88.94</v>
       </c>
       <c r="G63" t="n" s="11">
-        <v>89.21</v>
+        <v>89.14</v>
       </c>
       <c r="H63" t="n" s="11">
-        <v>93.1</v>
+        <v>92.96</v>
       </c>
       <c r="I63" t="n" s="11">
-        <v>95.26</v>
+        <v>95.07</v>
       </c>
       <c r="J63" t="n" s="11">
-        <v>97.32</v>
+        <v>97.66</v>
       </c>
       <c r="K63" t="n" s="11">
-        <v>96.83</v>
+        <v>96.87</v>
       </c>
       <c r="L63" t="n" s="11">
-        <v>98.44</v>
+        <v>98.24</v>
       </c>
       <c r="M63" t="n" s="11">
-        <v>98.4</v>
+        <v>98.25</v>
       </c>
       <c r="N63" t="n" s="11">
-        <v>97.97</v>
+        <v>98.17</v>
       </c>
       <c r="O63" t="n" s="11">
-        <v>96.42</v>
+        <v>96.49</v>
       </c>
       <c r="P63" t="n" s="11">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="Q63" t="n" s="11">
-        <v>95.15</v>
+        <v>95.14</v>
       </c>
       <c r="R63" t="n" s="11">
-        <v>94.82</v>
+        <v>94.83</v>
       </c>
       <c r="S63" t="n" s="11">
-        <v>95.69</v>
+        <v>95.71</v>
       </c>
       <c r="T63" t="n" s="11">
         <v>98.28</v>
@@ -22491,61 +22491,61 @@
         <v>99.22</v>
       </c>
       <c r="DC63" t="n" s="11">
-        <v>97.5</v>
+        <v>97.48</v>
       </c>
       <c r="DD63" t="n" s="11">
-        <v>99.16</v>
+        <v>99.15</v>
       </c>
       <c r="DE63" t="n" s="11">
-        <v>97.13</v>
+        <v>97.15</v>
       </c>
       <c r="DF63" t="n" s="11">
-        <v>97.11</v>
+        <v>97.19</v>
       </c>
       <c r="DG63" t="n" s="11">
-        <v>98.71</v>
+        <v>98.61</v>
       </c>
       <c r="DH63" t="n" s="11">
-        <v>98.7</v>
+        <v>98.67</v>
       </c>
       <c r="DI63" t="n" s="11">
-        <v>100.77</v>
+        <v>100.81</v>
       </c>
       <c r="DJ63" t="n" s="11">
-        <v>102.15</v>
+        <v>102.31</v>
       </c>
       <c r="DK63" t="n" s="11">
-        <v>102.22</v>
+        <v>102.99</v>
       </c>
       <c r="DL63" t="n" s="11">
-        <v>103.84</v>
+        <v>105.07</v>
       </c>
       <c r="DM63" t="n" s="11">
-        <v>103.74</v>
+        <v>104.7</v>
       </c>
       <c r="DN63" t="n" s="11">
-        <v>106.04</v>
+        <v>107.05</v>
       </c>
       <c r="DO63" t="n" s="11">
-        <v>106.77</v>
+        <v>107.6</v>
       </c>
       <c r="DP63" t="n" s="11">
-        <v>121.51</v>
+        <v>123.59</v>
       </c>
       <c r="DQ63" t="n" s="11">
-        <v>108.46</v>
+        <v>108.73</v>
       </c>
       <c r="DR63" t="n" s="11">
-        <v>104.74</v>
+        <v>105.61</v>
       </c>
       <c r="DS63" t="n" s="11">
-        <v>105.8</v>
+        <v>106.9</v>
       </c>
       <c r="DT63" t="n" s="11">
-        <v>103.79</v>
-      </c>
-      <c r="DU63" t="s" s="11">
-        <v>44</v>
+        <v>106.27</v>
+      </c>
+      <c r="DU63" t="n" s="11">
+        <v>108.27</v>
       </c>
       <c r="DV63" t="s" s="11">
         <v>44</v>
@@ -22564,7 +22564,7 @@
         <v>43</v>
       </c>
       <c r="C65" t="n" s="11">
-        <v>9924.0</v>
+        <v>9926.0</v>
       </c>
       <c r="D65" t="n" s="11">
         <v>10125.0</v>
@@ -22573,13 +22573,13 @@
         <v>10309.0</v>
       </c>
       <c r="F65" t="n" s="11">
-        <v>10601.0</v>
+        <v>10602.0</v>
       </c>
       <c r="G65" t="n" s="11">
         <v>10867.0</v>
       </c>
       <c r="H65" t="n" s="11">
-        <v>11011.0</v>
+        <v>11012.0</v>
       </c>
       <c r="I65" t="n" s="11">
         <v>11169.0</v>
@@ -22588,16 +22588,16 @@
         <v>11295.0</v>
       </c>
       <c r="K65" t="n" s="11">
-        <v>11326.0</v>
+        <v>11327.0</v>
       </c>
       <c r="L65" t="n" s="11">
-        <v>11511.0</v>
+        <v>11510.0</v>
       </c>
       <c r="M65" t="n" s="11">
         <v>11629.0</v>
       </c>
       <c r="N65" t="n" s="11">
-        <v>11676.0</v>
+        <v>11675.0</v>
       </c>
       <c r="O65" t="n" s="11">
         <v>11918.0</v>
@@ -22606,7 +22606,7 @@
         <v>11971.0</v>
       </c>
       <c r="Q65" t="n" s="11">
-        <v>12092.0</v>
+        <v>12091.0</v>
       </c>
       <c r="R65" t="n" s="11">
         <v>12262.0</v>
@@ -22618,88 +22618,88 @@
         <v>12461.0</v>
       </c>
       <c r="U65" t="n" s="11">
-        <v>12522.0</v>
+        <v>12523.0</v>
       </c>
       <c r="V65" t="n" s="11">
-        <v>12525.0</v>
+        <v>12526.0</v>
       </c>
       <c r="W65" t="n" s="11">
         <v>12536.0</v>
       </c>
       <c r="X65" t="n" s="11">
-        <v>12593.0</v>
+        <v>12594.0</v>
       </c>
       <c r="Y65" t="n" s="11">
         <v>12660.0</v>
       </c>
       <c r="Z65" t="n" s="11">
-        <v>12753.0</v>
+        <v>12754.0</v>
       </c>
       <c r="AA65" t="n" s="11">
-        <v>12800.0</v>
+        <v>12802.0</v>
       </c>
       <c r="AB65" t="n" s="11">
-        <v>12875.0</v>
+        <v>12874.0</v>
       </c>
       <c r="AC65" t="n" s="11">
         <v>12962.0</v>
       </c>
       <c r="AD65" t="n" s="11">
-        <v>13064.0</v>
+        <v>13065.0</v>
       </c>
       <c r="AE65" t="n" s="11">
-        <v>13121.0</v>
+        <v>13120.0</v>
       </c>
       <c r="AF65" t="n" s="11">
-        <v>13089.0</v>
+        <v>13090.0</v>
       </c>
       <c r="AG65" t="n" s="11">
-        <v>13076.0</v>
+        <v>13075.0</v>
       </c>
       <c r="AH65" t="n" s="11">
-        <v>13047.0</v>
+        <v>13046.0</v>
       </c>
       <c r="AI65" t="n" s="11">
         <v>13094.0</v>
       </c>
       <c r="AJ65" t="n" s="11">
+        <v>13111.0</v>
+      </c>
+      <c r="AK65" t="n" s="11">
+        <v>13141.0</v>
+      </c>
+      <c r="AL65" t="n" s="11">
+        <v>13163.0</v>
+      </c>
+      <c r="AM65" t="n" s="11">
         <v>13112.0</v>
-      </c>
-      <c r="AK65" t="n" s="11">
-        <v>13142.0</v>
-      </c>
-      <c r="AL65" t="n" s="11">
-        <v>13164.0</v>
-      </c>
-      <c r="AM65" t="n" s="11">
-        <v>13114.0</v>
       </c>
       <c r="AN65" t="n" s="11">
         <v>13197.0</v>
       </c>
       <c r="AO65" t="n" s="11">
-        <v>13225.0</v>
+        <v>13226.0</v>
       </c>
       <c r="AP65" t="n" s="11">
-        <v>13266.0</v>
+        <v>13267.0</v>
       </c>
       <c r="AQ65" t="n" s="11">
-        <v>13529.0</v>
+        <v>13528.0</v>
       </c>
       <c r="AR65" t="n" s="11">
         <v>13594.0</v>
       </c>
       <c r="AS65" t="n" s="11">
-        <v>13658.0</v>
+        <v>13659.0</v>
       </c>
       <c r="AT65" t="n" s="11">
-        <v>13778.0</v>
+        <v>13779.0</v>
       </c>
       <c r="AU65" t="n" s="11">
-        <v>13751.0</v>
+        <v>13753.0</v>
       </c>
       <c r="AV65" t="n" s="11">
-        <v>13806.0</v>
+        <v>13805.0</v>
       </c>
       <c r="AW65" t="n" s="11">
         <v>13948.0</v>
@@ -22711,67 +22711,67 @@
         <v>14009.0</v>
       </c>
       <c r="AZ65" t="n" s="11">
-        <v>14081.0</v>
+        <v>14082.0</v>
       </c>
       <c r="BA65" t="n" s="11">
         <v>14162.0</v>
       </c>
       <c r="BB65" t="n" s="11">
-        <v>14257.0</v>
+        <v>14258.0</v>
       </c>
       <c r="BC65" t="n" s="11">
-        <v>14303.0</v>
+        <v>14302.0</v>
       </c>
       <c r="BD65" t="n" s="11">
         <v>14351.0</v>
       </c>
       <c r="BE65" t="n" s="11">
-        <v>14330.0</v>
+        <v>14329.0</v>
       </c>
       <c r="BF65" t="n" s="11">
-        <v>14328.0</v>
+        <v>14326.0</v>
       </c>
       <c r="BG65" t="n" s="11">
-        <v>14420.0</v>
+        <v>14421.0</v>
       </c>
       <c r="BH65" t="n" s="11">
-        <v>14461.0</v>
+        <v>14459.0</v>
       </c>
       <c r="BI65" t="n" s="11">
-        <v>14586.0</v>
+        <v>14585.0</v>
       </c>
       <c r="BJ65" t="n" s="11">
         <v>14661.0</v>
       </c>
       <c r="BK65" t="n" s="11">
-        <v>14815.0</v>
+        <v>14814.0</v>
       </c>
       <c r="BL65" t="n" s="11">
-        <v>15012.0</v>
+        <v>15013.0</v>
       </c>
       <c r="BM65" t="n" s="11">
-        <v>15111.0</v>
+        <v>15112.0</v>
       </c>
       <c r="BN65" t="n" s="11">
-        <v>15323.0</v>
+        <v>15324.0</v>
       </c>
       <c r="BO65" t="n" s="11">
         <v>15411.0</v>
       </c>
       <c r="BP65" t="n" s="11">
-        <v>15483.0</v>
+        <v>15484.0</v>
       </c>
       <c r="BQ65" t="n" s="11">
-        <v>15583.0</v>
+        <v>15584.0</v>
       </c>
       <c r="BR65" t="n" s="11">
-        <v>15648.0</v>
+        <v>15649.0</v>
       </c>
       <c r="BS65" t="n" s="11">
-        <v>15789.0</v>
+        <v>15790.0</v>
       </c>
       <c r="BT65" t="n" s="11">
-        <v>15703.0</v>
+        <v>15701.0</v>
       </c>
       <c r="BU65" t="n" s="11">
         <v>15523.0</v>
@@ -22783,7 +22783,7 @@
         <v>14858.0</v>
       </c>
       <c r="BX65" t="n" s="11">
-        <v>14864.0</v>
+        <v>14865.0</v>
       </c>
       <c r="BY65" t="n" s="11">
         <v>14961.0</v>
@@ -22795,19 +22795,19 @@
         <v>15373.0</v>
       </c>
       <c r="CB65" t="n" s="11">
-        <v>15522.0</v>
+        <v>15521.0</v>
       </c>
       <c r="CC65" t="n" s="11">
-        <v>15678.0</v>
+        <v>15677.0</v>
       </c>
       <c r="CD65" t="n" s="11">
-        <v>15819.0</v>
+        <v>15817.0</v>
       </c>
       <c r="CE65" t="n" s="11">
         <v>16072.0</v>
       </c>
       <c r="CF65" t="n" s="11">
-        <v>16149.0</v>
+        <v>16148.0</v>
       </c>
       <c r="CG65" t="n" s="11">
         <v>16231.0</v>
@@ -22816,19 +22816,19 @@
         <v>16292.0</v>
       </c>
       <c r="CI65" t="n" s="11">
-        <v>16295.0</v>
+        <v>16294.0</v>
       </c>
       <c r="CJ65" t="n" s="11">
-        <v>16300.0</v>
+        <v>16301.0</v>
       </c>
       <c r="CK65" t="n" s="11">
         <v>16356.0</v>
       </c>
       <c r="CL65" t="n" s="11">
-        <v>16414.0</v>
+        <v>16415.0</v>
       </c>
       <c r="CM65" t="n" s="11">
-        <v>16423.0</v>
+        <v>16424.0</v>
       </c>
       <c r="CN65" t="n" s="11">
         <v>16593.0</v>
@@ -22837,19 +22837,19 @@
         <v>16698.0</v>
       </c>
       <c r="CP65" t="n" s="11">
-        <v>16771.0</v>
+        <v>16772.0</v>
       </c>
       <c r="CQ65" t="n" s="11">
         <v>17007.0</v>
       </c>
       <c r="CR65" t="n" s="11">
-        <v>17065.0</v>
+        <v>17066.0</v>
       </c>
       <c r="CS65" t="n" s="11">
         <v>17187.0</v>
       </c>
       <c r="CT65" t="n" s="11">
-        <v>17353.0</v>
+        <v>17354.0</v>
       </c>
       <c r="CU65" t="n" s="11">
         <v>17373.0</v>
@@ -22861,76 +22861,76 @@
         <v>17611.0</v>
       </c>
       <c r="CX65" t="n" s="11">
-        <v>17695.0</v>
+        <v>17694.0</v>
       </c>
       <c r="CY65" t="n" s="11">
-        <v>17811.0</v>
+        <v>17812.0</v>
       </c>
       <c r="CZ65" t="n" s="11">
-        <v>17923.0</v>
+        <v>17922.0</v>
       </c>
       <c r="DA65" t="n" s="11">
-        <v>17951.0</v>
+        <v>17950.0</v>
       </c>
       <c r="DB65" t="n" s="11">
-        <v>18017.0</v>
+        <v>18016.0</v>
       </c>
       <c r="DC65" t="n" s="11">
-        <v>18235.0</v>
+        <v>18233.0</v>
       </c>
       <c r="DD65" t="n" s="11">
-        <v>18362.0</v>
+        <v>18363.0</v>
       </c>
       <c r="DE65" t="n" s="11">
         <v>18579.0</v>
       </c>
       <c r="DF65" t="n" s="11">
-        <v>18707.0</v>
+        <v>18708.0</v>
       </c>
       <c r="DG65" t="n" s="11">
         <v>18671.0</v>
       </c>
       <c r="DH65" t="n" s="11">
-        <v>18805.0</v>
+        <v>18809.0</v>
       </c>
       <c r="DI65" t="n" s="11">
-        <v>18770.0</v>
+        <v>18771.0</v>
       </c>
       <c r="DJ65" t="n" s="11">
-        <v>18891.0</v>
+        <v>18884.0</v>
       </c>
       <c r="DK65" t="n" s="11">
-        <v>19102.0</v>
+        <v>19088.0</v>
       </c>
       <c r="DL65" t="n" s="11">
-        <v>19105.0</v>
+        <v>19155.0</v>
       </c>
       <c r="DM65" t="n" s="11">
-        <v>19312.0</v>
+        <v>19289.0</v>
       </c>
       <c r="DN65" t="n" s="11">
-        <v>19271.0</v>
+        <v>19241.0</v>
       </c>
       <c r="DO65" t="n" s="11">
-        <v>19155.0</v>
+        <v>19137.0</v>
       </c>
       <c r="DP65" t="n" s="11">
-        <v>17564.0</v>
+        <v>17697.0</v>
       </c>
       <c r="DQ65" t="n" s="11">
-        <v>19048.0</v>
+        <v>18979.0</v>
       </c>
       <c r="DR65" t="n" s="11">
-        <v>19139.0</v>
+        <v>19093.0</v>
       </c>
       <c r="DS65" t="n" s="11">
-        <v>19232.0</v>
+        <v>19225.0</v>
       </c>
       <c r="DT65" t="n" s="11">
-        <v>19382.0</v>
-      </c>
-      <c r="DU65" t="s" s="11">
-        <v>44</v>
+        <v>19628.0</v>
+      </c>
+      <c r="DU65" t="n" s="11">
+        <v>20178.0</v>
       </c>
       <c r="DV65" t="s" s="11">
         <v>44</v>
@@ -22944,37 +22944,37 @@
         <v>43</v>
       </c>
       <c r="C66" t="n" s="11">
-        <v>25.34</v>
+        <v>25.25</v>
       </c>
       <c r="D66" t="n" s="11">
-        <v>26.07</v>
+        <v>26.09</v>
       </c>
       <c r="E66" t="n" s="11">
-        <v>26.47</v>
+        <v>26.51</v>
       </c>
       <c r="F66" t="n" s="11">
-        <v>27.13</v>
+        <v>27.17</v>
       </c>
       <c r="G66" t="n" s="11">
-        <v>27.71</v>
+        <v>27.63</v>
       </c>
       <c r="H66" t="n" s="11">
-        <v>28.06</v>
+        <v>28.08</v>
       </c>
       <c r="I66" t="n" s="11">
-        <v>28.6</v>
+        <v>28.63</v>
       </c>
       <c r="J66" t="n" s="11">
-        <v>29.04</v>
+        <v>29.06</v>
       </c>
       <c r="K66" t="n" s="11">
-        <v>29.39</v>
+        <v>29.34</v>
       </c>
       <c r="L66" t="n" s="11">
-        <v>29.93</v>
+        <v>29.94</v>
       </c>
       <c r="M66" t="n" s="11">
-        <v>30.26</v>
+        <v>30.27</v>
       </c>
       <c r="N66" t="n" s="11">
         <v>30.51</v>
@@ -23097,7 +23097,7 @@
         <v>39.17</v>
       </c>
       <c r="BB66" t="n" s="11">
-        <v>39.5</v>
+        <v>39.51</v>
       </c>
       <c r="BC66" t="n" s="11">
         <v>39.57</v>
@@ -23112,7 +23112,7 @@
         <v>39.98</v>
       </c>
       <c r="BG66" t="n" s="11">
-        <v>40.63</v>
+        <v>40.62</v>
       </c>
       <c r="BH66" t="n" s="11">
         <v>40.4</v>
@@ -23121,10 +23121,10 @@
         <v>40.69</v>
       </c>
       <c r="BJ66" t="n" s="11">
-        <v>40.79</v>
+        <v>40.8</v>
       </c>
       <c r="BK66" t="n" s="11">
-        <v>40.84</v>
+        <v>40.83</v>
       </c>
       <c r="BL66" t="n" s="11">
         <v>41.38</v>
@@ -23136,7 +23136,7 @@
         <v>41.97</v>
       </c>
       <c r="BO66" t="n" s="11">
-        <v>42.26</v>
+        <v>42.25</v>
       </c>
       <c r="BP66" t="n" s="11">
         <v>42.52</v>
@@ -23247,70 +23247,70 @@
         <v>51.13</v>
       </c>
       <c r="CZ66" t="n" s="11">
-        <v>51.26</v>
+        <v>51.27</v>
       </c>
       <c r="DA66" t="n" s="11">
         <v>51.48</v>
       </c>
       <c r="DB66" t="n" s="11">
-        <v>51.85</v>
+        <v>51.84</v>
       </c>
       <c r="DC66" t="n" s="11">
-        <v>52.25</v>
+        <v>52.24</v>
       </c>
       <c r="DD66" t="n" s="11">
-        <v>52.89</v>
+        <v>52.93</v>
       </c>
       <c r="DE66" t="n" s="11">
-        <v>53.45</v>
+        <v>53.44</v>
       </c>
       <c r="DF66" t="n" s="11">
-        <v>53.92</v>
+        <v>53.9</v>
       </c>
       <c r="DG66" t="n" s="11">
-        <v>54.07</v>
+        <v>54.04</v>
       </c>
       <c r="DH66" t="n" s="11">
-        <v>53.97</v>
+        <v>54.05</v>
       </c>
       <c r="DI66" t="n" s="11">
-        <v>54.28</v>
+        <v>54.26</v>
       </c>
       <c r="DJ66" t="n" s="11">
-        <v>54.53</v>
+        <v>54.5</v>
       </c>
       <c r="DK66" t="n" s="11">
-        <v>54.92</v>
+        <v>54.88</v>
       </c>
       <c r="DL66" t="n" s="11">
-        <v>55.27</v>
+        <v>55.41</v>
       </c>
       <c r="DM66" t="n" s="11">
-        <v>55.82</v>
+        <v>55.75</v>
       </c>
       <c r="DN66" t="n" s="11">
-        <v>56.11</v>
+        <v>56.05</v>
       </c>
       <c r="DO66" t="n" s="11">
-        <v>56.72</v>
+        <v>56.68</v>
       </c>
       <c r="DP66" t="n" s="11">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
       <c r="DQ66" t="n" s="11">
-        <v>56.6</v>
+        <v>56.42</v>
       </c>
       <c r="DR66" t="n" s="11">
-        <v>57.67</v>
+        <v>57.57</v>
       </c>
       <c r="DS66" t="n" s="11">
-        <v>58.38</v>
+        <v>58.43</v>
       </c>
       <c r="DT66" t="n" s="11">
-        <v>57.8</v>
-      </c>
-      <c r="DU66" t="s" s="11">
-        <v>44</v>
+        <v>58.4</v>
+      </c>
+      <c r="DU66" t="n" s="11">
+        <v>58.9</v>
       </c>
       <c r="DV66" t="s" s="11">
         <v>44</v>
@@ -23372,7 +23372,7 @@
         <v>87.03</v>
       </c>
       <c r="S67" t="n" s="11">
-        <v>86.91</v>
+        <v>86.92</v>
       </c>
       <c r="T67" t="n" s="11">
         <v>87.35</v>
@@ -23381,7 +23381,7 @@
         <v>87.45</v>
       </c>
       <c r="V67" t="n" s="11">
-        <v>87.3</v>
+        <v>87.28</v>
       </c>
       <c r="W67" t="n" s="11">
         <v>87.32</v>
@@ -23396,7 +23396,7 @@
         <v>88.73</v>
       </c>
       <c r="AA67" t="n" s="11">
-        <v>89.0</v>
+        <v>88.99</v>
       </c>
       <c r="AB67" t="n" s="11">
         <v>89.56</v>
@@ -23426,10 +23426,10 @@
         <v>89.95</v>
       </c>
       <c r="AK67" t="n" s="11">
-        <v>90.3</v>
+        <v>90.31</v>
       </c>
       <c r="AL67" t="n" s="11">
-        <v>90.58</v>
+        <v>90.59</v>
       </c>
       <c r="AM67" t="n" s="11">
         <v>90.52</v>
@@ -23480,7 +23480,7 @@
         <v>94.29</v>
       </c>
       <c r="BC67" t="n" s="11">
-        <v>94.21</v>
+        <v>94.22</v>
       </c>
       <c r="BD67" t="n" s="11">
         <v>94.14</v>
@@ -23522,13 +23522,13 @@
         <v>99.34</v>
       </c>
       <c r="BQ67" t="n" s="11">
-        <v>99.56</v>
+        <v>99.55</v>
       </c>
       <c r="BR67" t="n" s="11">
         <v>99.89</v>
       </c>
       <c r="BS67" t="n" s="11">
-        <v>100.27</v>
+        <v>100.25</v>
       </c>
       <c r="BT67" t="n" s="11">
         <v>99.66</v>
@@ -23570,7 +23570,7 @@
         <v>98.86</v>
       </c>
       <c r="CG67" t="n" s="11">
-        <v>99.2</v>
+        <v>99.21</v>
       </c>
       <c r="CH67" t="n" s="11">
         <v>99.12</v>
@@ -23615,7 +23615,7 @@
         <v>99.65</v>
       </c>
       <c r="CV67" t="n" s="11">
-        <v>99.93</v>
+        <v>99.92</v>
       </c>
       <c r="CW67" t="n" s="11">
         <v>100.15</v>
@@ -23627,7 +23627,7 @@
         <v>100.76</v>
       </c>
       <c r="CZ67" t="n" s="11">
-        <v>100.84</v>
+        <v>100.85</v>
       </c>
       <c r="DA67" t="n" s="11">
         <v>100.87</v>
@@ -23651,46 +23651,46 @@
         <v>102.38</v>
       </c>
       <c r="DH67" t="n" s="11">
-        <v>102.51</v>
+        <v>102.52</v>
       </c>
       <c r="DI67" t="n" s="11">
         <v>101.89</v>
       </c>
       <c r="DJ67" t="n" s="11">
-        <v>101.86</v>
+        <v>101.84</v>
       </c>
       <c r="DK67" t="n" s="11">
-        <v>102.83</v>
+        <v>102.78</v>
       </c>
       <c r="DL67" t="n" s="11">
-        <v>102.02</v>
+        <v>102.15</v>
       </c>
       <c r="DM67" t="n" s="11">
-        <v>102.44</v>
+        <v>102.37</v>
       </c>
       <c r="DN67" t="n" s="11">
-        <v>101.74</v>
+        <v>101.67</v>
       </c>
       <c r="DO67" t="n" s="11">
-        <v>100.8</v>
+        <v>100.78</v>
       </c>
       <c r="DP67" t="n" s="11">
-        <v>91.45</v>
+        <v>91.78</v>
       </c>
       <c r="DQ67" t="n" s="11">
+        <v>99.85</v>
+      </c>
+      <c r="DR67" t="n" s="11">
         <v>100.01</v>
       </c>
-      <c r="DR67" t="n" s="11">
-        <v>100.11</v>
-      </c>
       <c r="DS67" t="n" s="11">
-        <v>99.54</v>
+        <v>99.74</v>
       </c>
       <c r="DT67" t="n" s="11">
-        <v>99.75</v>
-      </c>
-      <c r="DU67" t="s" s="11">
-        <v>44</v>
+        <v>100.66</v>
+      </c>
+      <c r="DU67" t="n" s="11">
+        <v>101.69</v>
       </c>
       <c r="DV67" t="s" s="11">
         <v>44</v>
@@ -23704,49 +23704,49 @@
         <v>47</v>
       </c>
       <c r="C68" t="n" s="11">
-        <v>72.39</v>
+        <v>72.12</v>
       </c>
       <c r="D68" t="n" s="11">
-        <v>73.2</v>
+        <v>73.26</v>
       </c>
       <c r="E68" t="n" s="11">
-        <v>73.5</v>
+        <v>73.61</v>
       </c>
       <c r="F68" t="n" s="11">
-        <v>74.19</v>
+        <v>74.28</v>
       </c>
       <c r="G68" t="n" s="11">
-        <v>74.78</v>
+        <v>74.54</v>
       </c>
       <c r="H68" t="n" s="11">
-        <v>74.89</v>
+        <v>74.96</v>
       </c>
       <c r="I68" t="n" s="11">
-        <v>75.34</v>
+        <v>75.42</v>
       </c>
       <c r="J68" t="n" s="11">
-        <v>75.76</v>
+        <v>75.81</v>
       </c>
       <c r="K68" t="n" s="11">
-        <v>75.93</v>
+        <v>75.8</v>
       </c>
       <c r="L68" t="n" s="11">
-        <v>76.49</v>
+        <v>76.53</v>
       </c>
       <c r="M68" t="n" s="11">
-        <v>77.03</v>
+        <v>77.04</v>
       </c>
       <c r="N68" t="n" s="11">
         <v>77.17</v>
       </c>
       <c r="O68" t="n" s="11">
-        <v>78.02</v>
+        <v>78.01</v>
       </c>
       <c r="P68" t="n" s="11">
         <v>78.39</v>
       </c>
       <c r="Q68" t="n" s="11">
-        <v>78.82</v>
+        <v>78.83</v>
       </c>
       <c r="R68" t="n" s="11">
         <v>79.25</v>
@@ -23776,10 +23776,10 @@
         <v>82.09</v>
       </c>
       <c r="AA68" t="n" s="11">
-        <v>82.57</v>
+        <v>82.58</v>
       </c>
       <c r="AB68" t="n" s="11">
-        <v>82.98</v>
+        <v>82.97</v>
       </c>
       <c r="AC68" t="n" s="11">
         <v>83.34</v>
@@ -23845,7 +23845,7 @@
         <v>90.32</v>
       </c>
       <c r="AX68" t="n" s="11">
-        <v>90.59</v>
+        <v>90.6</v>
       </c>
       <c r="AY68" t="n" s="11">
         <v>90.4</v>
@@ -23857,7 +23857,7 @@
         <v>90.91</v>
       </c>
       <c r="BB68" t="n" s="11">
-        <v>91.47</v>
+        <v>91.48</v>
       </c>
       <c r="BC68" t="n" s="11">
         <v>91.34</v>
@@ -23869,34 +23869,34 @@
         <v>91.79</v>
       </c>
       <c r="BF68" t="n" s="11">
-        <v>91.74</v>
+        <v>91.75</v>
       </c>
       <c r="BG68" t="n" s="11">
-        <v>93.08</v>
+        <v>93.07</v>
       </c>
       <c r="BH68" t="n" s="11">
         <v>92.64</v>
       </c>
       <c r="BI68" t="n" s="11">
-        <v>93.15</v>
+        <v>93.16</v>
       </c>
       <c r="BJ68" t="n" s="11">
-        <v>93.24</v>
+        <v>93.25</v>
       </c>
       <c r="BK68" t="n" s="11">
-        <v>93.51</v>
+        <v>93.49</v>
       </c>
       <c r="BL68" t="n" s="11">
         <v>94.45</v>
       </c>
       <c r="BM68" t="n" s="11">
-        <v>94.66</v>
+        <v>94.67</v>
       </c>
       <c r="BN68" t="n" s="11">
-        <v>95.34</v>
+        <v>95.35</v>
       </c>
       <c r="BO68" t="n" s="11">
-        <v>95.22</v>
+        <v>95.21</v>
       </c>
       <c r="BP68" t="n" s="11">
         <v>95.5</v>
@@ -23908,7 +23908,7 @@
         <v>96.09</v>
       </c>
       <c r="BS68" t="n" s="11">
-        <v>96.63</v>
+        <v>96.62</v>
       </c>
       <c r="BT68" t="n" s="11">
         <v>96.18</v>
@@ -23947,7 +23947,7 @@
         <v>96.9</v>
       </c>
       <c r="CF68" t="n" s="11">
-        <v>97.14</v>
+        <v>97.15</v>
       </c>
       <c r="CG68" t="n" s="11">
         <v>97.62</v>
@@ -24013,64 +24013,64 @@
         <v>101.37</v>
       </c>
       <c r="DB68" t="n" s="11">
-        <v>101.67</v>
+        <v>101.66</v>
       </c>
       <c r="DC68" t="n" s="11">
-        <v>102.18</v>
+        <v>102.15</v>
       </c>
       <c r="DD68" t="n" s="11">
-        <v>102.9</v>
+        <v>102.97</v>
       </c>
       <c r="DE68" t="n" s="11">
-        <v>103.48</v>
+        <v>103.46</v>
       </c>
       <c r="DF68" t="n" s="11">
-        <v>104.1</v>
+        <v>104.06</v>
       </c>
       <c r="DG68" t="n" s="11">
-        <v>103.75</v>
+        <v>103.71</v>
       </c>
       <c r="DH68" t="n" s="11">
-        <v>103.06</v>
+        <v>103.2</v>
       </c>
       <c r="DI68" t="n" s="11">
-        <v>103.13</v>
+        <v>103.09</v>
       </c>
       <c r="DJ68" t="n" s="11">
-        <v>102.95</v>
+        <v>102.92</v>
       </c>
       <c r="DK68" t="n" s="11">
-        <v>103.49</v>
+        <v>103.44</v>
       </c>
       <c r="DL68" t="n" s="11">
-        <v>103.27</v>
+        <v>103.4</v>
       </c>
       <c r="DM68" t="n" s="11">
-        <v>103.71</v>
+        <v>103.64</v>
       </c>
       <c r="DN68" t="n" s="11">
-        <v>103.68</v>
+        <v>103.66</v>
       </c>
       <c r="DO68" t="n" s="11">
-        <v>104.61</v>
+        <v>104.62</v>
       </c>
       <c r="DP68" t="n" s="11">
-        <v>101.1</v>
+        <v>101.29</v>
       </c>
       <c r="DQ68" t="n" s="11">
-        <v>104.12</v>
+        <v>103.99</v>
       </c>
       <c r="DR68" t="n" s="11">
-        <v>105.79</v>
+        <v>105.75</v>
       </c>
       <c r="DS68" t="n" s="11">
-        <v>105.78</v>
+        <v>106.13</v>
       </c>
       <c r="DT68" t="n" s="11">
-        <v>104.2</v>
-      </c>
-      <c r="DU68" t="s" s="11">
-        <v>44</v>
+        <v>104.93</v>
+      </c>
+      <c r="DU68" t="n" s="11">
+        <v>104.0</v>
       </c>
       <c r="DV68" t="s" s="11">
         <v>44</v>
@@ -24087,43 +24087,43 @@
         <v>5817.0</v>
       </c>
       <c r="D69" t="n" s="11">
-        <v>6033.0</v>
+        <v>6031.0</v>
       </c>
       <c r="E69" t="n" s="11">
-        <v>6084.0</v>
+        <v>6081.0</v>
       </c>
       <c r="F69" t="n" s="11">
-        <v>6237.0</v>
+        <v>6243.0</v>
       </c>
       <c r="G69" t="n" s="11">
-        <v>6456.0</v>
+        <v>6457.0</v>
       </c>
       <c r="H69" t="n" s="11">
-        <v>6578.0</v>
+        <v>6575.0</v>
       </c>
       <c r="I69" t="n" s="11">
-        <v>6778.0</v>
+        <v>6774.0</v>
       </c>
       <c r="J69" t="n" s="11">
-        <v>6837.0</v>
+        <v>6843.0</v>
       </c>
       <c r="K69" t="n" s="11">
-        <v>6795.0</v>
+        <v>6797.0</v>
       </c>
       <c r="L69" t="n" s="11">
-        <v>6935.0</v>
+        <v>6931.0</v>
       </c>
       <c r="M69" t="n" s="11">
-        <v>6967.0</v>
+        <v>6964.0</v>
       </c>
       <c r="N69" t="n" s="11">
-        <v>7047.0</v>
+        <v>7051.0</v>
       </c>
       <c r="O69" t="n" s="11">
-        <v>7092.0</v>
+        <v>7093.0</v>
       </c>
       <c r="P69" t="n" s="11">
-        <v>7097.0</v>
+        <v>7096.0</v>
       </c>
       <c r="Q69" t="n" s="11">
         <v>7139.0</v>
@@ -24282,40 +24282,40 @@
         <v>8390.0</v>
       </c>
       <c r="BQ69" t="n" s="11">
-        <v>8417.0</v>
+        <v>8416.0</v>
       </c>
       <c r="BR69" t="n" s="11">
-        <v>8454.0</v>
+        <v>8453.0</v>
       </c>
       <c r="BS69" t="n" s="11">
-        <v>8527.0</v>
+        <v>8530.0</v>
       </c>
       <c r="BT69" t="n" s="11">
-        <v>8593.0</v>
+        <v>8592.0</v>
       </c>
       <c r="BU69" t="n" s="11">
-        <v>8613.0</v>
+        <v>8611.0</v>
       </c>
       <c r="BV69" t="n" s="11">
-        <v>8659.0</v>
+        <v>8657.0</v>
       </c>
       <c r="BW69" t="n" s="11">
-        <v>8594.0</v>
+        <v>8600.0</v>
       </c>
       <c r="BX69" t="n" s="11">
-        <v>8603.0</v>
+        <v>8602.0</v>
       </c>
       <c r="BY69" t="n" s="11">
-        <v>8654.0</v>
+        <v>8653.0</v>
       </c>
       <c r="BZ69" t="n" s="11">
-        <v>8677.0</v>
+        <v>8676.0</v>
       </c>
       <c r="CA69" t="n" s="11">
-        <v>8768.0</v>
+        <v>8771.0</v>
       </c>
       <c r="CB69" t="n" s="11">
-        <v>8816.0</v>
+        <v>8815.0</v>
       </c>
       <c r="CC69" t="n" s="11">
         <v>8879.0</v>
@@ -24393,64 +24393,64 @@
         <v>10344.0</v>
       </c>
       <c r="DB69" t="n" s="11">
-        <v>10406.0</v>
+        <v>10407.0</v>
       </c>
       <c r="DC69" t="n" s="11">
         <v>10476.0</v>
       </c>
       <c r="DD69" t="n" s="11">
-        <v>10551.0</v>
+        <v>10550.0</v>
       </c>
       <c r="DE69" t="n" s="11">
         <v>10607.0</v>
       </c>
       <c r="DF69" t="n" s="11">
-        <v>10696.0</v>
+        <v>10697.0</v>
       </c>
       <c r="DG69" t="n" s="11">
-        <v>10762.0</v>
+        <v>10763.0</v>
       </c>
       <c r="DH69" t="n" s="11">
-        <v>10856.0</v>
+        <v>10850.0</v>
       </c>
       <c r="DI69" t="n" s="11">
-        <v>10935.0</v>
+        <v>10936.0</v>
       </c>
       <c r="DJ69" t="n" s="11">
-        <v>11010.0</v>
+        <v>11016.0</v>
       </c>
       <c r="DK69" t="n" s="11">
-        <v>11112.0</v>
+        <v>11122.0</v>
       </c>
       <c r="DL69" t="n" s="11">
-        <v>11299.0</v>
+        <v>11267.0</v>
       </c>
       <c r="DM69" t="n" s="11">
-        <v>11315.0</v>
+        <v>11320.0</v>
       </c>
       <c r="DN69" t="n" s="11">
-        <v>11301.0</v>
+        <v>11328.0</v>
       </c>
       <c r="DO69" t="n" s="11">
-        <v>11316.0</v>
+        <v>11343.0</v>
       </c>
       <c r="DP69" t="n" s="11">
-        <v>11111.0</v>
+        <v>11052.0</v>
       </c>
       <c r="DQ69" t="n" s="11">
-        <v>11338.0</v>
+        <v>11341.0</v>
       </c>
       <c r="DR69" t="n" s="11">
-        <v>11437.0</v>
+        <v>11479.0</v>
       </c>
       <c r="DS69" t="n" s="11">
-        <v>11413.0</v>
+        <v>11449.0</v>
       </c>
       <c r="DT69" t="n" s="11">
-        <v>11645.0</v>
-      </c>
-      <c r="DU69" t="s" s="11">
-        <v>44</v>
+        <v>11605.0</v>
+      </c>
+      <c r="DU69" t="n" s="11">
+        <v>11734.0</v>
       </c>
       <c r="DV69" t="s" s="11">
         <v>44</v>
@@ -24464,31 +24464,31 @@
         <v>43</v>
       </c>
       <c r="C70" t="n" s="11">
-        <v>15.76</v>
+        <v>15.7</v>
       </c>
       <c r="D70" t="n" s="11">
-        <v>16.31</v>
+        <v>16.32</v>
       </c>
       <c r="E70" t="n" s="11">
-        <v>16.44</v>
+        <v>16.45</v>
       </c>
       <c r="F70" t="n" s="11">
-        <v>16.89</v>
+        <v>16.93</v>
       </c>
       <c r="G70" t="n" s="11">
-        <v>17.24</v>
+        <v>17.18</v>
       </c>
       <c r="H70" t="n" s="11">
-        <v>17.67</v>
+        <v>17.68</v>
       </c>
       <c r="I70" t="n" s="11">
-        <v>18.24</v>
+        <v>18.25</v>
       </c>
       <c r="J70" t="n" s="11">
-        <v>18.45</v>
+        <v>18.48</v>
       </c>
       <c r="K70" t="n" s="11">
-        <v>18.63</v>
+        <v>18.6</v>
       </c>
       <c r="L70" t="n" s="11">
         <v>18.97</v>
@@ -24497,13 +24497,13 @@
         <v>19.1</v>
       </c>
       <c r="N70" t="n" s="11">
-        <v>19.32</v>
+        <v>19.34</v>
       </c>
       <c r="O70" t="n" s="11">
         <v>19.46</v>
       </c>
       <c r="P70" t="n" s="11">
-        <v>19.52</v>
+        <v>19.51</v>
       </c>
       <c r="Q70" t="n" s="11">
         <v>19.68</v>
@@ -24641,13 +24641,13 @@
         <v>24.29</v>
       </c>
       <c r="BJ70" t="n" s="11">
-        <v>24.3</v>
+        <v>24.31</v>
       </c>
       <c r="BK70" t="n" s="11">
         <v>24.04</v>
       </c>
       <c r="BL70" t="n" s="11">
-        <v>24.29</v>
+        <v>24.3</v>
       </c>
       <c r="BM70" t="n" s="11">
         <v>24.3</v>
@@ -24668,28 +24668,28 @@
         <v>24.58</v>
       </c>
       <c r="BS70" t="n" s="11">
-        <v>24.81</v>
+        <v>24.82</v>
       </c>
       <c r="BT70" t="n" s="11">
         <v>24.82</v>
       </c>
       <c r="BU70" t="n" s="11">
-        <v>25.14</v>
+        <v>25.13</v>
       </c>
       <c r="BV70" t="n" s="11">
         <v>25.61</v>
       </c>
       <c r="BW70" t="n" s="11">
-        <v>25.71</v>
+        <v>25.73</v>
       </c>
       <c r="BX70" t="n" s="11">
-        <v>26.22</v>
+        <v>26.21</v>
       </c>
       <c r="BY70" t="n" s="11">
-        <v>26.14</v>
+        <v>26.13</v>
       </c>
       <c r="BZ70" t="n" s="11">
-        <v>26.18</v>
+        <v>26.17</v>
       </c>
       <c r="CA70" t="n" s="11">
         <v>26.31</v>
@@ -24776,61 +24776,61 @@
         <v>31.26</v>
       </c>
       <c r="DC70" t="n" s="11">
-        <v>31.21</v>
+        <v>31.2</v>
       </c>
       <c r="DD70" t="n" s="11">
-        <v>31.83</v>
+        <v>31.86</v>
       </c>
       <c r="DE70" t="n" s="11">
-        <v>31.89</v>
+        <v>31.88</v>
       </c>
       <c r="DF70" t="n" s="11">
-        <v>32.26</v>
+        <v>32.25</v>
       </c>
       <c r="DG70" t="n" s="11">
-        <v>32.58</v>
+        <v>32.56</v>
       </c>
       <c r="DH70" t="n" s="11">
-        <v>32.43</v>
+        <v>32.46</v>
       </c>
       <c r="DI70" t="n" s="11">
-        <v>33.01</v>
+        <v>33.0</v>
       </c>
       <c r="DJ70" t="n" s="11">
-        <v>33.09</v>
+        <v>33.1</v>
       </c>
       <c r="DK70" t="n" s="11">
-        <v>33.3</v>
+        <v>33.33</v>
       </c>
       <c r="DL70" t="n" s="11">
-        <v>34.08</v>
+        <v>34.0</v>
       </c>
       <c r="DM70" t="n" s="11">
-        <v>33.98</v>
+        <v>33.99</v>
       </c>
       <c r="DN70" t="n" s="11">
-        <v>34.26</v>
+        <v>34.35</v>
       </c>
       <c r="DO70" t="n" s="11">
-        <v>34.59</v>
+        <v>34.68</v>
       </c>
       <c r="DP70" t="n" s="11">
-        <v>36.06</v>
+        <v>35.82</v>
       </c>
       <c r="DQ70" t="n" s="11">
         <v>34.81</v>
       </c>
       <c r="DR70" t="n" s="11">
-        <v>35.41</v>
+        <v>35.56</v>
       </c>
       <c r="DS70" t="n" s="11">
-        <v>35.85</v>
+        <v>36.0</v>
       </c>
       <c r="DT70" t="n" s="11">
-        <v>35.78</v>
-      </c>
-      <c r="DU70" t="s" s="11">
-        <v>44</v>
+        <v>35.63</v>
+      </c>
+      <c r="DU70" t="n" s="11">
+        <v>35.42</v>
       </c>
       <c r="DV70" t="s" s="11">
         <v>44</v>
@@ -24844,103 +24844,103 @@
         <v>43</v>
       </c>
       <c r="C71" t="n" s="11">
-        <v>4805.0</v>
+        <v>4800.0</v>
       </c>
       <c r="D71" t="n" s="11">
-        <v>4950.0</v>
+        <v>4944.0</v>
       </c>
       <c r="E71" t="n" s="11">
-        <v>4970.0</v>
+        <v>4991.0</v>
       </c>
       <c r="F71" t="n" s="11">
-        <v>5130.0</v>
+        <v>5122.0</v>
       </c>
       <c r="G71" t="n" s="11">
-        <v>5318.0</v>
+        <v>5314.0</v>
       </c>
       <c r="H71" t="n" s="11">
-        <v>5410.0</v>
+        <v>5407.0</v>
       </c>
       <c r="I71" t="n" s="11">
-        <v>5550.0</v>
+        <v>5562.0</v>
       </c>
       <c r="J71" t="n" s="11">
-        <v>5608.0</v>
+        <v>5604.0</v>
       </c>
       <c r="K71" t="n" s="11">
-        <v>5620.0</v>
+        <v>5618.0</v>
       </c>
       <c r="L71" t="n" s="11">
-        <v>5704.0</v>
+        <v>5703.0</v>
       </c>
       <c r="M71" t="n" s="11">
         <v>5730.0</v>
       </c>
       <c r="N71" t="n" s="11">
-        <v>5784.0</v>
+        <v>5789.0</v>
       </c>
       <c r="O71" t="n" s="11">
-        <v>5806.0</v>
+        <v>5804.0</v>
       </c>
       <c r="P71" t="n" s="11">
-        <v>5788.0</v>
+        <v>5785.0</v>
       </c>
       <c r="Q71" t="n" s="11">
-        <v>5822.0</v>
+        <v>5817.0</v>
       </c>
       <c r="R71" t="n" s="11">
-        <v>5872.0</v>
+        <v>5886.0</v>
       </c>
       <c r="S71" t="n" s="11">
-        <v>5920.0</v>
+        <v>5915.0</v>
       </c>
       <c r="T71" t="n" s="11">
-        <v>5990.0</v>
+        <v>5985.0</v>
       </c>
       <c r="U71" t="n" s="11">
-        <v>6015.0</v>
+        <v>6009.0</v>
       </c>
       <c r="V71" t="n" s="11">
-        <v>6051.0</v>
+        <v>6069.0</v>
       </c>
       <c r="W71" t="n" s="11">
-        <v>6054.0</v>
+        <v>6048.0</v>
       </c>
       <c r="X71" t="n" s="11">
-        <v>6048.0</v>
+        <v>6043.0</v>
       </c>
       <c r="Y71" t="n" s="11">
-        <v>6077.0</v>
+        <v>6072.0</v>
       </c>
       <c r="Z71" t="n" s="11">
-        <v>6080.0</v>
+        <v>6094.0</v>
       </c>
       <c r="AA71" t="n" s="11">
-        <v>6069.0</v>
+        <v>6065.0</v>
       </c>
       <c r="AB71" t="n" s="11">
-        <v>6062.0</v>
+        <v>6059.0</v>
       </c>
       <c r="AC71" t="n" s="11">
-        <v>6055.0</v>
+        <v>6052.0</v>
       </c>
       <c r="AD71" t="n" s="11">
-        <v>6080.0</v>
+        <v>6087.0</v>
       </c>
       <c r="AE71" t="n" s="11">
-        <v>6103.0</v>
+        <v>6100.0</v>
       </c>
       <c r="AF71" t="n" s="11">
-        <v>6107.0</v>
+        <v>6106.0</v>
       </c>
       <c r="AG71" t="n" s="11">
         <v>6126.0</v>
       </c>
       <c r="AH71" t="n" s="11">
-        <v>6136.0</v>
+        <v>6139.0</v>
       </c>
       <c r="AI71" t="n" s="11">
-        <v>6155.0</v>
+        <v>6154.0</v>
       </c>
       <c r="AJ71" t="n" s="11">
         <v>6210.0</v>
@@ -25171,46 +25171,46 @@
         <v>8872.0</v>
       </c>
       <c r="DH71" t="n" s="11">
-        <v>8948.0</v>
+        <v>8946.0</v>
       </c>
       <c r="DI71" t="n" s="11">
         <v>9011.0</v>
       </c>
       <c r="DJ71" t="n" s="11">
-        <v>9076.0</v>
+        <v>9077.0</v>
       </c>
       <c r="DK71" t="n" s="11">
-        <v>9131.0</v>
+        <v>9132.0</v>
       </c>
       <c r="DL71" t="n" s="11">
-        <v>9257.0</v>
+        <v>9255.0</v>
       </c>
       <c r="DM71" t="n" s="11">
-        <v>9302.0</v>
+        <v>9297.0</v>
       </c>
       <c r="DN71" t="n" s="11">
-        <v>9280.0</v>
+        <v>9289.0</v>
       </c>
       <c r="DO71" t="n" s="11">
-        <v>9305.0</v>
+        <v>9312.0</v>
       </c>
       <c r="DP71" t="n" s="11">
-        <v>8979.0</v>
+        <v>8980.0</v>
       </c>
       <c r="DQ71" t="n" s="11">
-        <v>9285.0</v>
+        <v>9269.0</v>
       </c>
       <c r="DR71" t="n" s="11">
-        <v>9368.0</v>
+        <v>9383.0</v>
       </c>
       <c r="DS71" t="n" s="11">
-        <v>9318.0</v>
+        <v>9334.0</v>
       </c>
       <c r="DT71" t="n" s="11">
-        <v>9445.0</v>
-      </c>
-      <c r="DU71" t="s" s="11">
-        <v>44</v>
+        <v>9479.0</v>
+      </c>
+      <c r="DU71" t="n" s="11">
+        <v>9607.0</v>
       </c>
       <c r="DV71" t="s" s="11">
         <v>44</v>
@@ -25224,91 +25224,91 @@
         <v>43</v>
       </c>
       <c r="C72" t="n" s="11">
-        <v>13.02</v>
+        <v>12.95</v>
       </c>
       <c r="D72" t="n" s="11">
         <v>13.38</v>
       </c>
       <c r="E72" t="n" s="11">
-        <v>13.43</v>
+        <v>13.5</v>
       </c>
       <c r="F72" t="n" s="11">
         <v>13.89</v>
       </c>
       <c r="G72" t="n" s="11">
-        <v>14.2</v>
+        <v>14.14</v>
       </c>
       <c r="H72" t="n" s="11">
-        <v>14.53</v>
+        <v>14.54</v>
       </c>
       <c r="I72" t="n" s="11">
-        <v>14.93</v>
+        <v>14.98</v>
       </c>
       <c r="J72" t="n" s="11">
-        <v>15.13</v>
+        <v>15.14</v>
       </c>
       <c r="K72" t="n" s="11">
-        <v>15.41</v>
+        <v>15.37</v>
       </c>
       <c r="L72" t="n" s="11">
-        <v>15.6</v>
+        <v>15.61</v>
       </c>
       <c r="M72" t="n" s="11">
-        <v>15.71</v>
+        <v>15.72</v>
       </c>
       <c r="N72" t="n" s="11">
-        <v>15.86</v>
+        <v>15.87</v>
       </c>
       <c r="O72" t="n" s="11">
         <v>15.93</v>
       </c>
       <c r="P72" t="n" s="11">
-        <v>15.92</v>
+        <v>15.91</v>
       </c>
       <c r="Q72" t="n" s="11">
-        <v>16.05</v>
+        <v>16.03</v>
       </c>
       <c r="R72" t="n" s="11">
-        <v>16.18</v>
+        <v>16.22</v>
       </c>
       <c r="S72" t="n" s="11">
-        <v>16.22</v>
+        <v>16.2</v>
       </c>
       <c r="T72" t="n" s="11">
-        <v>16.6</v>
+        <v>16.59</v>
       </c>
       <c r="U72" t="n" s="11">
-        <v>16.72</v>
+        <v>16.71</v>
       </c>
       <c r="V72" t="n" s="11">
+        <v>16.88</v>
+      </c>
+      <c r="W72" t="n" s="11">
         <v>16.83</v>
       </c>
-      <c r="W72" t="n" s="11">
-        <v>16.85</v>
-      </c>
       <c r="X72" t="n" s="11">
-        <v>16.94</v>
+        <v>16.93</v>
       </c>
       <c r="Y72" t="n" s="11">
-        <v>17.0</v>
+        <v>16.98</v>
       </c>
       <c r="Z72" t="n" s="11">
-        <v>17.08</v>
+        <v>17.12</v>
       </c>
       <c r="AA72" t="n" s="11">
-        <v>17.24</v>
+        <v>17.23</v>
       </c>
       <c r="AB72" t="n" s="11">
-        <v>16.96</v>
+        <v>16.95</v>
       </c>
       <c r="AC72" t="n" s="11">
-        <v>17.04</v>
+        <v>17.03</v>
       </c>
       <c r="AD72" t="n" s="11">
-        <v>17.16</v>
+        <v>17.19</v>
       </c>
       <c r="AE72" t="n" s="11">
-        <v>17.14</v>
+        <v>17.13</v>
       </c>
       <c r="AF72" t="n" s="11">
         <v>17.37</v>
@@ -25329,7 +25329,7 @@
         <v>17.74</v>
       </c>
       <c r="AL72" t="n" s="11">
-        <v>17.73</v>
+        <v>17.74</v>
       </c>
       <c r="AM72" t="n" s="11">
         <v>17.87</v>
@@ -25374,7 +25374,7 @@
         <v>19.45</v>
       </c>
       <c r="BA72" t="n" s="11">
-        <v>19.47</v>
+        <v>19.46</v>
       </c>
       <c r="BB72" t="n" s="11">
         <v>19.57</v>
@@ -25389,7 +25389,7 @@
         <v>19.65</v>
       </c>
       <c r="BF72" t="n" s="11">
-        <v>19.56</v>
+        <v>19.57</v>
       </c>
       <c r="BG72" t="n" s="11">
         <v>20.07</v>
@@ -25404,7 +25404,7 @@
         <v>19.7</v>
       </c>
       <c r="BK72" t="n" s="11">
-        <v>19.43</v>
+        <v>19.42</v>
       </c>
       <c r="BL72" t="n" s="11">
         <v>19.65</v>
@@ -25533,64 +25533,64 @@
         <v>25.48</v>
       </c>
       <c r="DB72" t="n" s="11">
-        <v>25.73</v>
+        <v>25.72</v>
       </c>
       <c r="DC72" t="n" s="11">
-        <v>25.66</v>
+        <v>25.65</v>
       </c>
       <c r="DD72" t="n" s="11">
-        <v>26.16</v>
+        <v>26.18</v>
       </c>
       <c r="DE72" t="n" s="11">
         <v>26.22</v>
       </c>
       <c r="DF72" t="n" s="11">
-        <v>26.53</v>
+        <v>26.52</v>
       </c>
       <c r="DG72" t="n" s="11">
-        <v>26.86</v>
+        <v>26.84</v>
       </c>
       <c r="DH72" t="n" s="11">
-        <v>26.73</v>
+        <v>26.77</v>
       </c>
       <c r="DI72" t="n" s="11">
-        <v>27.2</v>
+        <v>27.19</v>
       </c>
       <c r="DJ72" t="n" s="11">
-        <v>27.28</v>
+        <v>27.27</v>
       </c>
       <c r="DK72" t="n" s="11">
         <v>27.37</v>
       </c>
       <c r="DL72" t="n" s="11">
-        <v>27.92</v>
+        <v>27.93</v>
       </c>
       <c r="DM72" t="n" s="11">
-        <v>27.94</v>
+        <v>27.91</v>
       </c>
       <c r="DN72" t="n" s="11">
-        <v>28.14</v>
+        <v>28.17</v>
       </c>
       <c r="DO72" t="n" s="11">
-        <v>28.44</v>
+        <v>28.48</v>
       </c>
       <c r="DP72" t="n" s="11">
-        <v>29.14</v>
+        <v>29.11</v>
       </c>
       <c r="DQ72" t="n" s="11">
-        <v>28.51</v>
+        <v>28.45</v>
       </c>
       <c r="DR72" t="n" s="11">
+        <v>29.06</v>
+      </c>
+      <c r="DS72" t="n" s="11">
+        <v>29.35</v>
+      </c>
+      <c r="DT72" t="n" s="11">
+        <v>29.1</v>
+      </c>
+      <c r="DU72" t="n" s="11">
         <v>29.0</v>
-      </c>
-      <c r="DS72" t="n" s="11">
-        <v>29.27</v>
-      </c>
-      <c r="DT72" t="n" s="11">
-        <v>29.02</v>
-      </c>
-      <c r="DU72" t="s" s="11">
-        <v>44</v>
       </c>
       <c r="DV72" t="s" s="11">
         <v>44</v>
@@ -25604,49 +25604,49 @@
         <v>47</v>
       </c>
       <c r="C73" t="n" s="11">
-        <v>71.32</v>
+        <v>71.31</v>
       </c>
       <c r="D73" t="n" s="11">
-        <v>73.7</v>
+        <v>73.65</v>
       </c>
       <c r="E73" t="n" s="11">
-        <v>73.81</v>
+        <v>73.78</v>
       </c>
       <c r="F73" t="n" s="11">
-        <v>74.75</v>
+        <v>74.82</v>
       </c>
       <c r="G73" t="n" s="11">
-        <v>76.46</v>
+        <v>76.47</v>
       </c>
       <c r="H73" t="n" s="11">
-        <v>77.73</v>
+        <v>77.69</v>
       </c>
       <c r="I73" t="n" s="11">
-        <v>80.0</v>
+        <v>79.95</v>
       </c>
       <c r="J73" t="n" s="11">
-        <v>80.59</v>
+        <v>80.66</v>
       </c>
       <c r="K73" t="n" s="11">
-        <v>80.62</v>
+        <v>80.66</v>
       </c>
       <c r="L73" t="n" s="11">
-        <v>81.85</v>
+        <v>81.8</v>
       </c>
       <c r="M73" t="n" s="11">
-        <v>81.74</v>
+        <v>81.72</v>
       </c>
       <c r="N73" t="n" s="11">
-        <v>82.88</v>
+        <v>82.93</v>
       </c>
       <c r="O73" t="n" s="11">
-        <v>82.13</v>
+        <v>82.14</v>
       </c>
       <c r="P73" t="n" s="11">
-        <v>81.99</v>
+        <v>81.95</v>
       </c>
       <c r="Q73" t="n" s="11">
-        <v>82.15</v>
+        <v>82.14</v>
       </c>
       <c r="R73" t="n" s="11">
         <v>82.27</v>
@@ -25661,7 +25661,7 @@
         <v>84.05</v>
       </c>
       <c r="V73" t="n" s="11">
-        <v>84.81</v>
+        <v>84.83</v>
       </c>
       <c r="W73" t="n" s="11">
         <v>84.41</v>
@@ -25676,7 +25676,7 @@
         <v>83.82</v>
       </c>
       <c r="AA73" t="n" s="11">
-        <v>83.63</v>
+        <v>83.64</v>
       </c>
       <c r="AB73" t="n" s="11">
         <v>83.07</v>
@@ -25706,10 +25706,10 @@
         <v>84.64</v>
       </c>
       <c r="AK73" t="n" s="11">
-        <v>84.3</v>
+        <v>84.29</v>
       </c>
       <c r="AL73" t="n" s="11">
-        <v>84.16</v>
+        <v>84.15</v>
       </c>
       <c r="AM73" t="n" s="11">
         <v>84.64</v>
@@ -25760,7 +25760,7 @@
         <v>86.37</v>
       </c>
       <c r="BC73" t="n" s="11">
-        <v>86.48</v>
+        <v>86.47</v>
       </c>
       <c r="BD73" t="n" s="11">
         <v>86.4</v>
@@ -25802,43 +25802,43 @@
         <v>83.74</v>
       </c>
       <c r="BQ73" t="n" s="11">
-        <v>83.82</v>
+        <v>83.83</v>
       </c>
       <c r="BR73" t="n" s="11">
-        <v>83.91</v>
+        <v>83.9</v>
       </c>
       <c r="BS73" t="n" s="11">
-        <v>84.31</v>
+        <v>84.36</v>
       </c>
       <c r="BT73" t="n" s="11">
-        <v>85.49</v>
+        <v>85.48</v>
       </c>
       <c r="BU73" t="n" s="11">
-        <v>86.79</v>
+        <v>86.78</v>
       </c>
       <c r="BV73" t="n" s="11">
-        <v>88.56</v>
+        <v>88.54</v>
       </c>
       <c r="BW73" t="n" s="11">
-        <v>92.17</v>
+        <v>92.22</v>
       </c>
       <c r="BX73" t="n" s="11">
-        <v>91.9</v>
+        <v>91.89</v>
       </c>
       <c r="BY73" t="n" s="11">
-        <v>92.25</v>
+        <v>92.24</v>
       </c>
       <c r="BZ73" t="n" s="11">
-        <v>91.52</v>
+        <v>91.5</v>
       </c>
       <c r="CA73" t="n" s="11">
-        <v>91.67</v>
+        <v>91.71</v>
       </c>
       <c r="CB73" t="n" s="11">
-        <v>90.7</v>
+        <v>90.69</v>
       </c>
       <c r="CC73" t="n" s="11">
-        <v>90.85</v>
+        <v>90.84</v>
       </c>
       <c r="CD73" t="n" s="11">
         <v>90.95</v>
@@ -25850,7 +25850,7 @@
         <v>91.19</v>
       </c>
       <c r="CG73" t="n" s="11">
-        <v>91.33</v>
+        <v>91.32</v>
       </c>
       <c r="CH73" t="n" s="11">
         <v>91.92</v>
@@ -25895,7 +25895,7 @@
         <v>99.15</v>
       </c>
       <c r="CV73" t="n" s="11">
-        <v>99.85</v>
+        <v>99.86</v>
       </c>
       <c r="CW73" t="n" s="11">
         <v>100.17</v>
@@ -25907,7 +25907,7 @@
         <v>100.66</v>
       </c>
       <c r="CZ73" t="n" s="11">
-        <v>100.99</v>
+        <v>100.98</v>
       </c>
       <c r="DA73" t="n" s="11">
         <v>101.68</v>
@@ -25919,7 +25919,7 @@
         <v>102.17</v>
       </c>
       <c r="DD73" t="n" s="11">
-        <v>102.46</v>
+        <v>102.45</v>
       </c>
       <c r="DE73" t="n" s="11">
         <v>102.36</v>
@@ -25928,49 +25928,49 @@
         <v>102.72</v>
       </c>
       <c r="DG73" t="n" s="11">
-        <v>104.22</v>
+        <v>104.24</v>
       </c>
       <c r="DH73" t="n" s="11">
-        <v>105.0</v>
+        <v>104.95</v>
       </c>
       <c r="DI73" t="n" s="11">
-        <v>106.4</v>
+        <v>106.41</v>
       </c>
       <c r="DJ73" t="n" s="11">
-        <v>107.17</v>
+        <v>107.26</v>
       </c>
       <c r="DK73" t="n" s="11">
-        <v>107.15</v>
+        <v>107.29</v>
       </c>
       <c r="DL73" t="n" s="11">
-        <v>109.81</v>
+        <v>109.36</v>
       </c>
       <c r="DM73" t="n" s="11">
-        <v>109.52</v>
+        <v>109.64</v>
       </c>
       <c r="DN73" t="n" s="11">
-        <v>110.13</v>
+        <v>110.48</v>
       </c>
       <c r="DO73" t="n" s="11">
-        <v>111.31</v>
+        <v>111.59</v>
       </c>
       <c r="DP73" t="n" s="11">
-        <v>120.46</v>
+        <v>119.39</v>
       </c>
       <c r="DQ73" t="n" s="11">
-        <v>112.4</v>
+        <v>112.62</v>
       </c>
       <c r="DR73" t="n" s="11">
-        <v>113.28</v>
+        <v>113.81</v>
       </c>
       <c r="DS73" t="n" s="11">
-        <v>113.68</v>
+        <v>113.82</v>
       </c>
       <c r="DT73" t="n" s="11">
-        <v>115.75</v>
-      </c>
-      <c r="DU73" t="s" s="11">
-        <v>44</v>
+        <v>114.32</v>
+      </c>
+      <c r="DU73" t="n" s="11">
+        <v>114.4</v>
       </c>
       <c r="DV73" t="s" s="11">
         <v>44</v>
@@ -25984,61 +25984,61 @@
         <v>47</v>
       </c>
       <c r="C74" t="n" s="11">
-        <v>72.15</v>
+        <v>72.1</v>
       </c>
       <c r="D74" t="n" s="11">
-        <v>73.84</v>
+        <v>73.82</v>
       </c>
       <c r="E74" t="n" s="11">
-        <v>74.11</v>
+        <v>74.08</v>
       </c>
       <c r="F74" t="n" s="11">
-        <v>75.43</v>
+        <v>75.54</v>
       </c>
       <c r="G74" t="n" s="11">
-        <v>76.41</v>
+        <v>76.38</v>
       </c>
       <c r="H74" t="n" s="11">
-        <v>78.19</v>
+        <v>78.16</v>
       </c>
       <c r="I74" t="n" s="11">
-        <v>80.21</v>
+        <v>80.18</v>
       </c>
       <c r="J74" t="n" s="11">
-        <v>80.7</v>
+        <v>80.78</v>
       </c>
       <c r="K74" t="n" s="11">
-        <v>81.3</v>
+        <v>81.31</v>
       </c>
       <c r="L74" t="n" s="11">
-        <v>82.18</v>
+        <v>82.12</v>
       </c>
       <c r="M74" t="n" s="11">
-        <v>82.18</v>
+        <v>82.17</v>
       </c>
       <c r="N74" t="n" s="11">
-        <v>82.97</v>
+        <v>83.02</v>
       </c>
       <c r="O74" t="n" s="11">
-        <v>82.65</v>
+        <v>82.66</v>
       </c>
       <c r="P74" t="n" s="11">
-        <v>82.51</v>
+        <v>82.49</v>
       </c>
       <c r="Q74" t="n" s="11">
-        <v>82.72</v>
+        <v>82.7</v>
       </c>
       <c r="R74" t="n" s="11">
         <v>83.22</v>
       </c>
       <c r="S74" t="n" s="11">
-        <v>83.38</v>
+        <v>83.39</v>
       </c>
       <c r="T74" t="n" s="11">
         <v>84.69</v>
       </c>
       <c r="U74" t="n" s="11">
-        <v>85.33</v>
+        <v>85.32</v>
       </c>
       <c r="V74" t="n" s="11">
         <v>85.9</v>
@@ -26047,7 +26047,7 @@
         <v>85.23</v>
       </c>
       <c r="X74" t="n" s="11">
-        <v>85.26</v>
+        <v>85.24</v>
       </c>
       <c r="Y74" t="n" s="11">
         <v>85.08</v>
@@ -26056,10 +26056,10 @@
         <v>85.07</v>
       </c>
       <c r="AA74" t="n" s="11">
-        <v>85.58</v>
+        <v>85.57</v>
       </c>
       <c r="AB74" t="n" s="11">
-        <v>83.82</v>
+        <v>83.83</v>
       </c>
       <c r="AC74" t="n" s="11">
         <v>83.89</v>
@@ -26125,7 +26125,7 @@
         <v>86.63</v>
       </c>
       <c r="AX74" t="n" s="11">
-        <v>87.12</v>
+        <v>87.11</v>
       </c>
       <c r="AY74" t="n" s="11">
         <v>87.82</v>
@@ -26152,28 +26152,28 @@
         <v>87.3</v>
       </c>
       <c r="BG74" t="n" s="11">
-        <v>88.2</v>
+        <v>88.21</v>
       </c>
       <c r="BH74" t="n" s="11">
-        <v>86.8</v>
+        <v>86.81</v>
       </c>
       <c r="BI74" t="n" s="11">
-        <v>86.39</v>
+        <v>86.38</v>
       </c>
       <c r="BJ74" t="n" s="11">
-        <v>86.37</v>
+        <v>86.36</v>
       </c>
       <c r="BK74" t="n" s="11">
-        <v>85.21</v>
+        <v>85.2</v>
       </c>
       <c r="BL74" t="n" s="11">
-        <v>85.23</v>
+        <v>85.24</v>
       </c>
       <c r="BM74" t="n" s="11">
-        <v>85.04</v>
+        <v>85.03</v>
       </c>
       <c r="BN74" t="n" s="11">
-        <v>84.17</v>
+        <v>84.16</v>
       </c>
       <c r="BO74" t="n" s="11">
         <v>84.2</v>
@@ -26185,40 +26185,40 @@
         <v>84.72</v>
       </c>
       <c r="BR74" t="n" s="11">
-        <v>84.75</v>
+        <v>84.74</v>
       </c>
       <c r="BS74" t="n" s="11">
-        <v>85.08</v>
+        <v>85.12</v>
       </c>
       <c r="BT74" t="n" s="11">
-        <v>85.51</v>
+        <v>85.5</v>
       </c>
       <c r="BU74" t="n" s="11">
-        <v>87.34</v>
+        <v>87.33</v>
       </c>
       <c r="BV74" t="n" s="11">
-        <v>89.77</v>
+        <v>89.75</v>
       </c>
       <c r="BW74" t="n" s="11">
-        <v>92.67</v>
+        <v>92.72</v>
       </c>
       <c r="BX74" t="n" s="11">
-        <v>93.56</v>
+        <v>93.55</v>
       </c>
       <c r="BY74" t="n" s="11">
-        <v>93.26</v>
+        <v>93.25</v>
       </c>
       <c r="BZ74" t="n" s="11">
-        <v>92.41</v>
+        <v>92.4</v>
       </c>
       <c r="CA74" t="n" s="11">
-        <v>92.37</v>
+        <v>92.4</v>
       </c>
       <c r="CB74" t="n" s="11">
-        <v>91.26</v>
+        <v>91.25</v>
       </c>
       <c r="CC74" t="n" s="11">
-        <v>91.33</v>
+        <v>91.32</v>
       </c>
       <c r="CD74" t="n" s="11">
         <v>90.92</v>
@@ -26227,7 +26227,7 @@
         <v>90.79</v>
       </c>
       <c r="CF74" t="n" s="11">
-        <v>91.49</v>
+        <v>91.48</v>
       </c>
       <c r="CG74" t="n" s="11">
         <v>91.61</v>
@@ -26287,7 +26287,7 @@
         <v>100.91</v>
       </c>
       <c r="CZ74" t="n" s="11">
-        <v>100.1</v>
+        <v>100.11</v>
       </c>
       <c r="DA74" t="n" s="11">
         <v>101.24</v>
@@ -26299,58 +26299,58 @@
         <v>101.2</v>
       </c>
       <c r="DD74" t="n" s="11">
-        <v>102.51</v>
+        <v>102.52</v>
       </c>
       <c r="DE74" t="n" s="11">
-        <v>102.11</v>
+        <v>102.1</v>
       </c>
       <c r="DF74" t="n" s="11">
-        <v>102.7</v>
+        <v>102.68</v>
       </c>
       <c r="DG74" t="n" s="11">
-        <v>104.04</v>
+        <v>104.03</v>
       </c>
       <c r="DH74" t="n" s="11">
-        <v>104.26</v>
+        <v>104.22</v>
       </c>
       <c r="DI74" t="n" s="11">
-        <v>106.06</v>
+        <v>106.05</v>
       </c>
       <c r="DJ74" t="n" s="11">
-        <v>106.51</v>
+        <v>106.56</v>
       </c>
       <c r="DK74" t="n" s="11">
-        <v>106.63</v>
+        <v>106.77</v>
       </c>
       <c r="DL74" t="n" s="11">
-        <v>109.35</v>
+        <v>108.96</v>
       </c>
       <c r="DM74" t="n" s="11">
-        <v>108.55</v>
+        <v>108.65</v>
       </c>
       <c r="DN74" t="n" s="11">
-        <v>109.49</v>
+        <v>109.8</v>
       </c>
       <c r="DO74" t="n" s="11">
-        <v>109.57</v>
+        <v>109.85</v>
       </c>
       <c r="DP74" t="n" s="11">
-        <v>118.18</v>
+        <v>117.18</v>
       </c>
       <c r="DQ74" t="n" s="11">
-        <v>110.79</v>
+        <v>110.9</v>
       </c>
       <c r="DR74" t="n" s="11">
-        <v>110.91</v>
+        <v>111.4</v>
       </c>
       <c r="DS74" t="n" s="11">
-        <v>112.3</v>
+        <v>112.39</v>
       </c>
       <c r="DT74" t="n" s="11">
-        <v>113.79</v>
-      </c>
-      <c r="DU74" t="s" s="11">
-        <v>44</v>
+        <v>112.5</v>
+      </c>
+      <c r="DU74" t="n" s="11">
+        <v>112.85</v>
       </c>
       <c r="DV74" t="s" s="11">
         <v>44</v>
@@ -26526,7 +26526,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:49:46&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:53:05&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>